--- a/documentos/Entrega 1/Gestão de Projetos/Cannoli_Parcial.xlsx
+++ b/documentos/Entrega 1/Gestão de Projetos/Cannoli_Parcial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24026460\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24026568\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D1E48C-38CD-462A-B297-75FFE7ABAB60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8787315B-A979-4618-AA88-251056240257}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5865" tabRatio="854" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5865" tabRatio="854" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Charter" sheetId="16" r:id="rId1"/>
@@ -3982,91 +3982,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="10" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="35" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4221,6 +4136,91 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="27" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="10" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="35" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -5093,14 +5093,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{025397C8-278A-4FB7-A986-A1B487EA1563}">
-      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:prSet phldrT="[Texto]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" b="1"/>
+            <a:rPr lang="pt-BR" sz="600" b="1"/>
             <a:t>INTEGRAÇÃO </a:t>
           </a:r>
         </a:p>
@@ -5129,14 +5129,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8BB75C25-BB24-48E5-95A1-BDDD2AD67385}">
-      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:prSet phldrT="[Texto]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" b="1"/>
+            <a:rPr lang="pt-BR" sz="600" b="1"/>
             <a:t>TESTES</a:t>
           </a:r>
         </a:p>
@@ -5165,14 +5165,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{14FC8420-D447-4CEA-A3B7-61E9B3749D8E}">
-      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:prSet phldrT="[Texto]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" b="1"/>
+            <a:rPr lang="pt-BR" sz="600" b="1"/>
             <a:t>EXPANSÃO</a:t>
           </a:r>
         </a:p>
@@ -5201,20 +5201,20 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{905ED552-0ABB-46DE-A60F-9DB1B7EBD348}">
-      <dgm:prSet/>
+      <dgm:prSet custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" b="1"/>
+            <a:rPr lang="pt-BR" sz="500" b="1"/>
             <a:t>AVALIAÇÃO</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" b="1"/>
+            <a:rPr lang="pt-BR" sz="500" b="1"/>
             <a:t>E APERFEICOAMENTO</a:t>
           </a:r>
         </a:p>
@@ -5243,14 +5243,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5901CCA6-EF9E-4F05-B532-AFA0A830E4D5}">
-      <dgm:prSet/>
+      <dgm:prSet custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" b="1"/>
+            <a:rPr lang="pt-BR" sz="600" b="1"/>
             <a:t>PÓS-LANÇAMENTO</a:t>
           </a:r>
         </a:p>
@@ -5279,14 +5279,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{424E63FB-7A5E-47ED-BA8E-381C8BEA7B4D}">
-      <dgm:prSet/>
+      <dgm:prSet custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" b="1"/>
+            <a:rPr lang="pt-BR" sz="600" b="1"/>
             <a:t>LANÇAMENTO</a:t>
           </a:r>
         </a:p>
@@ -5358,9 +5358,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" sz="900" b="1"/>
+            <a:rPr lang="pt-BR" sz="600" b="1"/>
             <a:t>PLANEJAMENTO</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" b="1"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -5394,9 +5395,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1000" b="1"/>
+            <a:rPr lang="pt-BR" sz="500" b="1"/>
             <a:t>INÍCIO</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -5503,14 +5505,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4EDFDD96-7D03-4644-B893-2DE9B7516A86}">
-      <dgm:prSet/>
+      <dgm:prSet custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR"/>
+            <a:rPr lang="pt-BR" sz="600"/>
             <a:t>DESIGN UI </a:t>
           </a:r>
         </a:p>
@@ -6161,15 +6163,21 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{03DF699C-3176-485E-B584-5BC85EC703ED}">
-      <dgm:prSet/>
+      <dgm:prSet custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR"/>
-            <a:t>PÓS IMPLANTAÇÃO</a:t>
+            <a:rPr lang="pt-BR" sz="800" b="1"/>
+            <a:t>PÓS IMPLANTAÇÃO/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="800" b="1"/>
+            <a:t>MANUTENÇÃO</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -6459,14 +6467,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{141B889D-94F1-45C1-B73E-13B1197CCCF8}">
-      <dgm:prSet/>
+      <dgm:prSet custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR"/>
+            <a:rPr lang="pt-BR" sz="600"/>
             <a:t>DESIGN UX</a:t>
           </a:r>
         </a:p>
@@ -8111,7 +8119,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1050" b="1"/>
+            <a:rPr lang="pt-BR" sz="800" b="1"/>
             <a:t>GERENCIAMENTO</a:t>
           </a:r>
         </a:p>
@@ -10605,7 +10613,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ADEAA3FF-F634-47DE-8844-A10560CC1EC8}" type="pres">
-      <dgm:prSet presAssocID="{03DF699C-3176-485E-B584-5BC85EC703ED}" presName="rootText1" presStyleLbl="node0" presStyleIdx="2" presStyleCnt="3">
+      <dgm:prSet presAssocID="{03DF699C-3176-485E-B584-5BC85EC703ED}" presName="rootText1" presStyleLbl="node0" presStyleIdx="2" presStyleCnt="3" custScaleX="184378">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -12150,8 +12158,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14521529" y="2355093"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="14462350" y="2411921"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12165,10 +12173,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12207,8 +12215,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14521529" y="2355093"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="14462350" y="2411921"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12222,10 +12230,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12264,8 +12272,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13744625" y="1942328"/>
-          <a:ext cx="1055168" cy="122085"/>
+          <a:off x="13688788" y="2000832"/>
+          <a:ext cx="1050881" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12279,13 +12287,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1055168" y="61042"/>
+                <a:pt x="1050881" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1055168" y="122085"/>
+                <a:pt x="1050881" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12324,8 +12332,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13818084" y="2355093"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="13761762" y="2411921"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12339,10 +12347,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12381,8 +12389,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13818084" y="2355093"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="13761762" y="2411921"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12396,10 +12404,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12438,8 +12446,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13818084" y="2355093"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="13761762" y="2411921"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12453,10 +12461,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12495,8 +12503,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13744625" y="1942328"/>
-          <a:ext cx="351722" cy="122085"/>
+          <a:off x="13688788" y="2000832"/>
+          <a:ext cx="350293" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12510,13 +12518,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="351722" y="61042"/>
+                <a:pt x="350293" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="351722" y="122085"/>
+                <a:pt x="350293" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12555,8 +12563,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13114638" y="2355093"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="13061175" y="2411921"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12570,10 +12578,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12612,8 +12620,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13114638" y="2355093"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="13061175" y="2411921"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12627,10 +12635,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12669,8 +12677,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13114638" y="2355093"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="13061175" y="2411921"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12684,10 +12692,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12726,8 +12734,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13392902" y="1942328"/>
-          <a:ext cx="351722" cy="122085"/>
+          <a:off x="13338494" y="2000832"/>
+          <a:ext cx="350293" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12738,16 +12746,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="351722" y="0"/>
+                <a:pt x="350293" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="351722" y="61042"/>
+                <a:pt x="350293" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12786,8 +12794,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12411193" y="2355093"/>
-          <a:ext cx="91440" cy="1505721"/>
+          <a:off x="12360587" y="2411921"/>
+          <a:ext cx="91440" cy="1499605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12801,10 +12809,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1505721"/>
+                <a:pt x="45720" y="1499605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1505721"/>
+                <a:pt x="132569" y="1499605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12843,8 +12851,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12411193" y="2355093"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="12360587" y="2411921"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12858,10 +12866,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12900,8 +12908,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12411193" y="2355093"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="12360587" y="2411921"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12915,10 +12923,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12957,8 +12965,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12411193" y="2355093"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="12360587" y="2411921"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12972,10 +12980,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13014,8 +13022,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12689457" y="1942328"/>
-          <a:ext cx="1055168" cy="122085"/>
+          <a:off x="12637906" y="2000832"/>
+          <a:ext cx="1050881" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13026,16 +13034,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1055168" y="0"/>
+                <a:pt x="1050881" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1055168" y="61042"/>
+                <a:pt x="1050881" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13074,8 +13082,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11707747" y="2767859"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="11659999" y="2823009"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13089,10 +13097,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13131,8 +13139,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11707747" y="2767859"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="11659999" y="2823009"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13146,10 +13154,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13188,8 +13196,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11707747" y="2767859"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="11659999" y="2823009"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13203,10 +13211,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13245,8 +13253,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11282566" y="2355093"/>
-          <a:ext cx="703445" cy="122085"/>
+          <a:off x="11236731" y="2411921"/>
+          <a:ext cx="700587" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13260,13 +13268,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="703445" y="61042"/>
+                <a:pt x="700587" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="703445" y="122085"/>
+                <a:pt x="700587" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13305,8 +13313,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11004302" y="2767859"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="10959412" y="2823009"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13320,10 +13328,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13362,8 +13370,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11004302" y="2767859"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="10959412" y="2823009"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13377,10 +13385,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13419,8 +13427,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11004302" y="2767859"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="10959412" y="2823009"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13434,10 +13442,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13476,8 +13484,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11236846" y="2355093"/>
-          <a:ext cx="91440" cy="122085"/>
+          <a:off x="11191011" y="2411921"/>
+          <a:ext cx="91440" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13491,7 +13499,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="122085"/>
+                <a:pt x="45720" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13530,8 +13538,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10300857" y="2767859"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="10258824" y="2823009"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13545,10 +13553,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13587,8 +13595,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10300857" y="2767859"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="10258824" y="2823009"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13602,10 +13610,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13644,8 +13652,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10300857" y="2767859"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="10258824" y="2823009"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13659,10 +13667,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13701,8 +13709,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10579121" y="2355093"/>
-          <a:ext cx="703445" cy="122085"/>
+          <a:off x="10536143" y="2411921"/>
+          <a:ext cx="700587" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13713,16 +13721,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="703445" y="0"/>
+                <a:pt x="700587" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="703445" y="61042"/>
+                <a:pt x="700587" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13761,8 +13769,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7268276" y="1942328"/>
-          <a:ext cx="4014289" cy="122085"/>
+          <a:off x="7238749" y="2000832"/>
+          <a:ext cx="3997981" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13776,13 +13784,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4014289" y="61042"/>
+                <a:pt x="3997981" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4014289" y="122085"/>
+                <a:pt x="3997981" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13821,8 +13829,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9452071" y="2355093"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="9413487" y="2411921"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13836,10 +13844,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13878,8 +13886,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9452071" y="2355093"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="9413487" y="2411921"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13893,10 +13901,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13935,8 +13943,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9452071" y="2355093"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="9413487" y="2411921"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13950,10 +13958,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13992,8 +14000,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7268276" y="1942328"/>
-          <a:ext cx="2462058" cy="122085"/>
+          <a:off x="7238749" y="2000832"/>
+          <a:ext cx="2452056" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14007,13 +14015,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2462058" y="61042"/>
+                <a:pt x="2452056" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2462058" y="122085"/>
+                <a:pt x="2452056" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14052,8 +14060,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8748626" y="3180624"/>
-          <a:ext cx="91440" cy="1505721"/>
+          <a:off x="8712899" y="3234098"/>
+          <a:ext cx="91440" cy="1499605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14067,10 +14075,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1505721"/>
+                <a:pt x="45720" y="1499605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1505721"/>
+                <a:pt x="132569" y="1499605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14109,8 +14117,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8748626" y="3180624"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="8712899" y="3234098"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14124,10 +14132,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14166,8 +14174,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8748626" y="3180624"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="8712899" y="3234098"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14181,10 +14189,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14223,8 +14231,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8748626" y="3180624"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="8712899" y="3234098"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14238,10 +14246,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14280,8 +14288,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8981170" y="2767859"/>
-          <a:ext cx="91440" cy="122085"/>
+          <a:off x="8944498" y="2823009"/>
+          <a:ext cx="91440" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14295,7 +14303,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="122085"/>
+                <a:pt x="45720" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14334,8 +14342,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7568403" y="2355093"/>
-          <a:ext cx="1458486" cy="122085"/>
+          <a:off x="7537657" y="2411921"/>
+          <a:ext cx="1452561" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14349,13 +14357,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1458486" y="61042"/>
+                <a:pt x="1452561" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1458486" y="122085"/>
+                <a:pt x="1452561" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14394,8 +14402,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7413616" y="3180624"/>
-          <a:ext cx="1055168" cy="122085"/>
+          <a:off x="7383499" y="3234098"/>
+          <a:ext cx="1050881" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14409,13 +14417,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1055168" y="61042"/>
+                <a:pt x="1050881" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1055168" y="122085"/>
+                <a:pt x="1050881" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14454,8 +14462,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7413616" y="3180624"/>
-          <a:ext cx="351722" cy="122085"/>
+          <a:off x="7383499" y="3234098"/>
+          <a:ext cx="350293" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14469,13 +14477,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="351722" y="61042"/>
+                <a:pt x="350293" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="351722" y="122085"/>
+                <a:pt x="350293" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14514,8 +14522,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6783630" y="3593389"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="6755886" y="3645187"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14529,10 +14537,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14571,8 +14579,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6783630" y="3593389"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="6755886" y="3645187"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14586,10 +14594,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14628,8 +14636,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7061894" y="3180624"/>
-          <a:ext cx="351722" cy="122085"/>
+          <a:off x="7033205" y="3234098"/>
+          <a:ext cx="350293" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14640,16 +14648,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="351722" y="0"/>
+                <a:pt x="350293" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="351722" y="61042"/>
+                <a:pt x="350293" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14688,8 +14696,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6358448" y="3180624"/>
-          <a:ext cx="1055168" cy="122085"/>
+          <a:off x="6332617" y="3234098"/>
+          <a:ext cx="1050881" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14700,16 +14708,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1055168" y="0"/>
+                <a:pt x="1050881" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1055168" y="61042"/>
+                <a:pt x="1050881" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14748,8 +14756,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6109917" y="2767859"/>
-          <a:ext cx="1303699" cy="122085"/>
+          <a:off x="6085096" y="2823009"/>
+          <a:ext cx="1298403" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14763,13 +14771,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1303699" y="61042"/>
+                <a:pt x="1298403" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1303699" y="122085"/>
+                <a:pt x="1298403" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14808,8 +14816,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5231399" y="3180624"/>
-          <a:ext cx="91440" cy="1918487"/>
+          <a:off x="5209961" y="3234098"/>
+          <a:ext cx="91440" cy="1910693"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14823,10 +14831,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1918487"/>
+                <a:pt x="45720" y="1910693"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1918487"/>
+                <a:pt x="132569" y="1910693"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14865,8 +14873,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5231399" y="3180624"/>
-          <a:ext cx="91440" cy="1505721"/>
+          <a:off x="5209961" y="3234098"/>
+          <a:ext cx="91440" cy="1499605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14880,10 +14888,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1505721"/>
+                <a:pt x="45720" y="1499605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1505721"/>
+                <a:pt x="132569" y="1499605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14922,8 +14930,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5231399" y="3180624"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="5209961" y="3234098"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14937,10 +14945,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14979,8 +14987,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5231399" y="3180624"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="5209961" y="3234098"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14994,10 +15002,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15036,8 +15044,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5231399" y="3180624"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="5209961" y="3234098"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15051,10 +15059,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15093,8 +15101,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5509663" y="2767859"/>
-          <a:ext cx="600254" cy="122085"/>
+          <a:off x="5487280" y="2823009"/>
+          <a:ext cx="597815" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15105,16 +15113,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="600254" y="0"/>
+                <a:pt x="597815" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="600254" y="61042"/>
+                <a:pt x="597815" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15153,8 +15161,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4527954" y="3180624"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="4509373" y="3234098"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15168,10 +15176,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15210,8 +15218,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4527954" y="3180624"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="4509373" y="3234098"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15225,10 +15233,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15267,8 +15275,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4527954" y="3180624"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="4509373" y="3234098"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15282,10 +15290,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15324,8 +15332,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4806217" y="2767859"/>
-          <a:ext cx="1303699" cy="122085"/>
+          <a:off x="4786692" y="2823009"/>
+          <a:ext cx="1298403" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15336,16 +15344,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1303699" y="0"/>
+                <a:pt x="1298403" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1303699" y="61042"/>
+                <a:pt x="1298403" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15384,8 +15392,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6109917" y="2355093"/>
-          <a:ext cx="1458486" cy="122085"/>
+          <a:off x="6085096" y="2411921"/>
+          <a:ext cx="1452561" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15396,16 +15404,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1458486" y="0"/>
+                <a:pt x="1452561" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1458486" y="61042"/>
+                <a:pt x="1452561" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15444,8 +15452,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7268276" y="1942328"/>
-          <a:ext cx="300127" cy="122085"/>
+          <a:off x="7238749" y="2000832"/>
+          <a:ext cx="298907" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15459,13 +15467,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="300127" y="61042"/>
+                <a:pt x="298907" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="300127" y="122085"/>
+                <a:pt x="298907" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15504,8 +15512,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3679168" y="2355093"/>
-          <a:ext cx="91440" cy="1505721"/>
+          <a:off x="3664036" y="2411921"/>
+          <a:ext cx="91440" cy="1499605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15519,10 +15527,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1505721"/>
+                <a:pt x="45720" y="1499605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1505721"/>
+                <a:pt x="132569" y="1499605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15561,8 +15569,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3679168" y="2355093"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="3664036" y="2411921"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15576,10 +15584,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15618,8 +15626,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3679168" y="2355093"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="3664036" y="2411921"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15633,10 +15641,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15675,8 +15683,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3679168" y="2355093"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="3664036" y="2411921"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15690,10 +15698,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15732,8 +15740,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3957432" y="1942328"/>
-          <a:ext cx="3310844" cy="122085"/>
+          <a:off x="3941355" y="2000832"/>
+          <a:ext cx="3297394" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15744,16 +15752,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3310844" y="0"/>
+                <a:pt x="3297394" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3310844" y="61042"/>
+                <a:pt x="3297394" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15792,8 +15800,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2975723" y="2355093"/>
-          <a:ext cx="91440" cy="1505721"/>
+          <a:off x="2963448" y="2411921"/>
+          <a:ext cx="91440" cy="1499605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15807,10 +15815,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1505721"/>
+                <a:pt x="45720" y="1499605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1505721"/>
+                <a:pt x="132569" y="1499605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15849,8 +15857,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2975723" y="2355093"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="2963448" y="2411921"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15864,10 +15872,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15906,8 +15914,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2975723" y="2355093"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="2963448" y="2411921"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15921,10 +15929,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15963,8 +15971,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2975723" y="2355093"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="2963448" y="2411921"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15978,10 +15986,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16020,8 +16028,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3253987" y="1942328"/>
-          <a:ext cx="4014289" cy="122085"/>
+          <a:off x="3240767" y="2000832"/>
+          <a:ext cx="3997981" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16032,16 +16040,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="4014289" y="0"/>
+                <a:pt x="3997981" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4014289" y="61042"/>
+                <a:pt x="3997981" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16080,8 +16088,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2272277" y="3180624"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="2262861" y="3234098"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16095,10 +16103,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16137,8 +16145,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1847096" y="2767859"/>
-          <a:ext cx="703445" cy="122085"/>
+          <a:off x="1839592" y="2823009"/>
+          <a:ext cx="700587" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16152,13 +16160,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="703445" y="61042"/>
+                <a:pt x="700587" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="703445" y="122085"/>
+                <a:pt x="700587" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16197,8 +16205,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1801376" y="2767859"/>
-          <a:ext cx="91440" cy="122085"/>
+          <a:off x="1793872" y="2823009"/>
+          <a:ext cx="91440" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16212,7 +16220,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="122085"/>
+                <a:pt x="45720" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16251,8 +16259,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="865387" y="3180624"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="861685" y="3234098"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16266,10 +16274,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16308,8 +16316,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="865387" y="3180624"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="861685" y="3234098"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16323,10 +16331,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16365,8 +16373,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1143651" y="2767859"/>
-          <a:ext cx="703445" cy="122085"/>
+          <a:off x="1139005" y="2823009"/>
+          <a:ext cx="700587" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16377,16 +16385,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="703445" y="0"/>
+                <a:pt x="700587" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="703445" y="61042"/>
+                <a:pt x="700587" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16425,8 +16433,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1801376" y="2355093"/>
-          <a:ext cx="91440" cy="122085"/>
+          <a:off x="1793872" y="2411921"/>
+          <a:ext cx="91440" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16440,7 +16448,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="122085"/>
+                <a:pt x="45720" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16479,8 +16487,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1070981" y="1942328"/>
-          <a:ext cx="776115" cy="122085"/>
+          <a:off x="1066630" y="2000832"/>
+          <a:ext cx="772962" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16494,13 +16502,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="776115" y="61042"/>
+                <a:pt x="772962" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="776115" y="122085"/>
+                <a:pt x="772962" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16539,8 +16547,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16601" y="2355093"/>
-          <a:ext cx="91440" cy="1505721"/>
+          <a:off x="16348" y="2411921"/>
+          <a:ext cx="91440" cy="1499605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16554,10 +16562,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1505721"/>
+                <a:pt x="45720" y="1499605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1505721"/>
+                <a:pt x="132569" y="1499605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16596,8 +16604,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16601" y="2355093"/>
-          <a:ext cx="91440" cy="1092956"/>
+          <a:off x="16348" y="2411921"/>
+          <a:ext cx="91440" cy="1088516"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16611,10 +16619,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1092956"/>
+                <a:pt x="45720" y="1088516"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="1092956"/>
+                <a:pt x="132569" y="1088516"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16653,8 +16661,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16601" y="2355093"/>
-          <a:ext cx="91440" cy="680190"/>
+          <a:off x="16348" y="2411921"/>
+          <a:ext cx="91440" cy="677427"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16668,10 +16676,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="680190"/>
+                <a:pt x="45720" y="677427"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="680190"/>
+                <a:pt x="132569" y="677427"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16710,8 +16718,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16601" y="2355093"/>
-          <a:ext cx="91440" cy="267425"/>
+          <a:off x="16348" y="2411921"/>
+          <a:ext cx="91440" cy="266339"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16725,10 +16733,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="267425"/>
+                <a:pt x="45720" y="266339"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="132923" y="267425"/>
+                <a:pt x="132569" y="266339"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16767,8 +16775,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="294865" y="1942328"/>
-          <a:ext cx="776115" cy="122085"/>
+          <a:off x="293667" y="2000832"/>
+          <a:ext cx="772962" cy="121589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16779,16 +16787,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="776115" y="0"/>
+                <a:pt x="772962" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="776115" y="61042"/>
+                <a:pt x="772962" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="61042"/>
+                <a:pt x="0" y="60794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="122085"/>
+                <a:pt x="0" y="121589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16827,8 +16835,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="463968" y="1651648"/>
-          <a:ext cx="1214024" cy="290679"/>
+          <a:off x="462083" y="1711333"/>
+          <a:ext cx="1209092" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16905,12 +16913,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="466725">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16923,14 +16931,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1050" b="1" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="800" b="1" kern="1200"/>
             <a:t>GERENCIAMENTO</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="463968" y="1651648"/>
-        <a:ext cx="1214024" cy="290679"/>
+        <a:off x="462083" y="1711333"/>
+        <a:ext cx="1209092" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{870B33F5-4B7C-42CB-A41E-B6450C2B1589}">
@@ -16940,8 +16948,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4185" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="4168" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17018,12 +17026,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17036,14 +17044,15 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1000" b="1" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="500" b="1" kern="1200"/>
             <a:t>INÍCIO</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4185" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="4168" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2188183F-756F-4DB8-BD64-8C99E46DB1C1}">
@@ -17053,8 +17062,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="149525" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="148918" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17163,8 +17172,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="149525" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="148918" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{17F7A3BA-A21D-4120-845F-DE69BEDDBBEF}">
@@ -17174,8 +17183,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="149525" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="148918" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17276,8 +17285,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="149525" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="148918" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{656BF3EA-28AD-413D-AF2E-2C0FEA905081}">
@@ -17287,8 +17296,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="149525" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="148918" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17389,8 +17398,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="149525" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="148918" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F11E0FA5-B364-4F8A-A702-D9613ECD8517}">
@@ -17400,8 +17409,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="149525" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="148918" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17502,8 +17511,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="149525" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="148918" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{62F4258B-C5E7-4DDD-9EE3-406ED25B322B}">
@@ -17513,8 +17522,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1556416" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="1550093" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17591,12 +17600,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17609,14 +17618,15 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="900" b="1" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="600" b="1" kern="1200"/>
             <a:t>PLANEJAMENTO</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" b="1" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1556416" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="1550093" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ACF06D77-4611-4650-98EF-5185D810B6AE}">
@@ -17626,8 +17636,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1556416" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="1550093" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17728,8 +17738,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1556416" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="1550093" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D1291E23-1C8E-4419-B3CD-77D118F1FD12}">
@@ -17739,8 +17749,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="852971" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="849505" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17841,8 +17851,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="852971" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="849505" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{27F7AE64-A30D-4D24-959B-7576B13E78D3}">
@@ -17852,8 +17862,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="998311" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="994255" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17955,8 +17965,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="998311" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="994255" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{363B202D-7A87-4A6C-A1F0-102131836434}">
@@ -17966,8 +17976,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="998311" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="994255" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18068,8 +18078,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="998311" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="994255" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E94B6404-BBAB-4537-B122-22EDBB8BA2BD}">
@@ -18079,8 +18089,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1556416" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="1550093" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18181,8 +18191,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1556416" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="1550093" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F5CC38DF-E659-4FDD-A0D2-126B51300B04}">
@@ -18192,8 +18202,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2259861" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="2250681" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18294,8 +18304,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2259861" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="2250681" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DB806BCD-2DF0-4DBB-BC15-66EC7A00C8F5}">
@@ -18305,8 +18315,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2405201" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="2395430" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18407,8 +18417,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2405201" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="2395430" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6082EBD5-5DD1-46CB-B838-582F04F3CF74}">
@@ -18418,8 +18428,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6804206" y="1651648"/>
-          <a:ext cx="928140" cy="290679"/>
+          <a:off x="6776564" y="1711333"/>
+          <a:ext cx="924370" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18520,8 +18530,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6804206" y="1651648"/>
-        <a:ext cx="928140" cy="290679"/>
+        <a:off x="6776564" y="1711333"/>
+        <a:ext cx="924370" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B88F1C60-EBDC-4C39-9D4A-43DE9407F41A}">
@@ -18531,8 +18541,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2963307" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="2951268" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18609,12 +18619,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18627,14 +18637,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="600" kern="1200"/>
             <a:t>DESIGN UI </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2963307" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="2951268" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AABF7258-3A68-4C50-8C9F-5B0A348FD5D4}">
@@ -18644,8 +18654,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3108647" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3096018" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18751,8 +18761,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3108647" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3096018" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{04EFE57A-346A-4D7D-BE14-72E0464E83A8}">
@@ -18762,8 +18772,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3108647" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3096018" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18864,8 +18874,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3108647" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3096018" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F4ABF537-7FFD-4B3A-BD7F-F92CAA13DFB1}">
@@ -18875,8 +18885,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3108647" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3096018" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18977,8 +18987,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3108647" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3096018" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{25C26CDE-E9C1-45BC-A0A7-BEEA4DD15101}">
@@ -18988,8 +18998,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3108647" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3096018" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19090,8 +19100,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3108647" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3096018" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{482DCAEA-9419-4B13-B1A6-ADB76B84C176}">
@@ -19101,8 +19111,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3666752" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3651856" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19179,12 +19189,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -19197,14 +19207,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="600" kern="1200"/>
             <a:t>DESIGN UX</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3666752" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3651856" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7CB1A8DA-E4D9-48D5-946D-7D655D00310B}">
@@ -19214,8 +19224,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3812092" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3796606" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19321,8 +19331,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3812092" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3796606" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{787D7592-C060-46FE-841C-899376B07F82}">
@@ -19332,8 +19342,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3812092" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3796606" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19439,8 +19449,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3812092" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3796606" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5D4275E7-1DDD-4041-B6A5-4A2D33BED9F0}">
@@ -19450,8 +19460,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3812092" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3796606" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19552,8 +19562,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3812092" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3796606" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{08D5027A-98A2-41D9-A25B-D422A483B3D4}">
@@ -19563,8 +19573,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3812092" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="3796606" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19670,8 +19680,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3812092" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="3796606" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9F74C05D-795A-4A6D-AD9B-BCB516320ABF}">
@@ -19681,8 +19691,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6985706" y="2064413"/>
-          <a:ext cx="1165393" cy="290679"/>
+          <a:off x="6957327" y="2122422"/>
+          <a:ext cx="1160659" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19783,8 +19793,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6985706" y="2064413"/>
-        <a:ext cx="1165393" cy="290679"/>
+        <a:off x="6957327" y="2122422"/>
+        <a:ext cx="1160659" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B14D279A-2EE9-4C38-BB08-E3A848A174A9}">
@@ -19794,8 +19804,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5819237" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="5795596" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19896,8 +19906,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5819237" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="5795596" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{99384343-58C1-49C5-BF73-F6B5C76CF037}">
@@ -19907,8 +19917,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4515538" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="4497193" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20009,8 +20019,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4515538" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="4497193" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BF458C22-9F75-41D2-AB4F-0778B2B5B40B}">
@@ -20020,8 +20030,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4660877" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="4641943" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20122,8 +20132,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4660877" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="4641943" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{46546686-44A6-4337-B36B-572271EDCA5F}">
@@ -20133,8 +20143,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4660877" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="4641943" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20235,8 +20245,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4660877" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="4641943" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CF0448EA-89C9-4DA7-B80B-7A1BEE4FBFA2}">
@@ -20246,8 +20256,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4660877" y="4128240"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="4641943" y="4177865"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20348,8 +20358,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4660877" y="4128240"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="4641943" y="4177865"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{78556E91-42EC-43E1-978E-658D4DDDD109}">
@@ -20359,8 +20369,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5218983" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="5197781" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20461,8 +20471,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5218983" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="5197781" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0696EA4D-BDC7-4143-984E-E4653F1FF589}">
@@ -20472,8 +20482,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5364323" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="5342530" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20574,8 +20584,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5364323" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="5342530" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F0A31EE9-0D84-4B58-A5FB-9EEBE96B3F18}">
@@ -20585,8 +20595,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5364323" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="5342530" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20687,8 +20697,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5364323" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="5342530" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A24CCB7F-4321-4494-B9BA-D9654648EAB6}">
@@ -20698,8 +20708,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5364323" y="4128240"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="5342530" y="4177865"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20800,8 +20810,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5364323" y="4128240"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="5342530" y="4177865"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FD88D524-6B57-4079-A2B6-9CAB4B9479AA}">
@@ -20811,8 +20821,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5364323" y="4541006"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="5342530" y="4588953"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20913,8 +20923,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5364323" y="4541006"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="5342530" y="4588953"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DF3BF60F-9C5F-4B29-8C19-C4AEF7B49BC1}">
@@ -20924,8 +20934,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5364323" y="4953771"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="5342530" y="5000042"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21026,8 +21036,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5364323" y="4953771"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="5342530" y="5000042"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1C849335-50E5-4414-A615-F49699DB7FD2}">
@@ -21037,8 +21047,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7122936" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="7094000" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21139,8 +21149,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7122936" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="7094000" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{599FA050-92D0-47AA-B5EB-98254295AF14}">
@@ -21150,8 +21160,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6067768" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="6043118" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21252,8 +21262,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6067768" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="6043118" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{873223EA-7F68-4528-98BE-9B0AD4B9BA4A}">
@@ -21263,8 +21273,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6771214" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="6743706" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21365,8 +21375,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6771214" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="6743706" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9A1E64F1-90FC-4F6A-9630-A28347507182}">
@@ -21376,8 +21386,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6916554" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="6888455" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21478,8 +21488,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6916554" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="6888455" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8EAEF25F-2DD2-4D54-80B0-B5D386314CBD}">
@@ -21489,8 +21499,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6916554" y="4128240"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="6888455" y="4177865"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21591,8 +21601,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6916554" y="4128240"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="6888455" y="4177865"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E8B4E636-F6EE-4FCD-8313-5C10BC0BD96E}">
@@ -21602,8 +21612,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7474659" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="7444293" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21704,8 +21714,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7474659" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="7444293" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{78CA72F4-0034-4309-B3A1-F9EB555CDFBB}">
@@ -21715,8 +21725,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8178104" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="8144881" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21817,8 +21827,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8178104" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="8144881" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9B9866DE-24EA-425D-AAF9-AA88956DF751}">
@@ -21828,8 +21838,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8736210" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="8700719" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21930,8 +21940,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8736210" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="8700719" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CD330AB0-A63B-49B7-BE13-963320C41952}">
@@ -21941,8 +21951,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8736210" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="8700719" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22043,8 +22053,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8736210" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="8700719" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DF49C9AB-B8F0-4060-A5B9-6FA0BFF1534C}">
@@ -22054,8 +22064,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8881550" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="8845469" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22156,8 +22166,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8881550" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="8845469" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{43AD2866-D424-4AF3-A100-EFC5B325B720}">
@@ -22167,8 +22177,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8881550" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="8845469" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22269,8 +22279,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8881550" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="8845469" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FCBBA2A9-5C6A-41BE-97FE-E1F3CF9D436A}">
@@ -22280,8 +22290,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8881550" y="4128240"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="8845469" y="4177865"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22382,8 +22392,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8881550" y="4128240"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="8845469" y="4177865"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F0D0E67C-C846-484A-B367-108D466DB8D7}">
@@ -22393,8 +22403,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8881550" y="4541006"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="8845469" y="4588953"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22496,8 +22506,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8881550" y="4541006"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="8845469" y="4588953"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DC606F7D-0512-4822-84C6-5204BC7E58AA}">
@@ -22507,8 +22517,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9439655" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="9401307" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22585,12 +22595,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -22603,14 +22613,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" b="1" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="600" b="1" kern="1200"/>
             <a:t>INTEGRAÇÃO </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9439655" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="9401307" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6C7766F8-3CA4-4B55-A2B1-A9A57BDBAE31}">
@@ -22620,8 +22630,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9584995" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="9546056" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22722,8 +22732,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9584995" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="9546056" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4FCB0235-D840-4E32-AF87-A5EC10F1D21A}">
@@ -22733,8 +22743,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9584995" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="9546056" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22835,8 +22845,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9584995" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="9546056" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0A63D2F4-C327-4936-997D-E8A37FF9B974}">
@@ -22846,8 +22856,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9584995" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="9546056" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22949,8 +22959,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9584995" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="9546056" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4CE408D0-F3D2-47E9-9B4D-994714D670D2}">
@@ -22960,8 +22970,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10991886" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="10947232" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23038,12 +23048,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -23056,14 +23066,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" b="1" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="600" b="1" kern="1200"/>
             <a:t>TESTES</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10991886" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="10947232" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C83F4A0E-1E92-4983-AFFC-CBBF607C3D31}">
@@ -23073,8 +23083,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10288441" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="10246644" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23175,8 +23185,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10288441" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="10246644" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E215F77F-8CA8-4A30-9C75-86BA56D3C21F}">
@@ -23186,8 +23196,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10433781" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="10391394" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23289,8 +23299,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10433781" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="10391394" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B2F4EA58-C736-4168-8B7E-208A9B8BD3E7}">
@@ -23300,8 +23310,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10433781" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="10391394" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23402,8 +23412,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10433781" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="10391394" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9D869396-0DB3-4E56-B5C3-B8ECD17AE0CF}">
@@ -23413,8 +23423,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10433781" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="10391394" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23515,8 +23525,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10433781" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="10391394" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F7FDFD22-E9B9-453B-AFC5-19DA41875544}">
@@ -23526,8 +23536,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10991886" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="10947232" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23628,8 +23638,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10991886" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="10947232" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{98635E63-D08B-443D-A7B8-991D83873676}">
@@ -23639,8 +23649,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11137226" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="11091981" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23741,8 +23751,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11137226" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="11091981" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D440159E-E985-4C77-AF65-E9414A6578AE}">
@@ -23752,8 +23762,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11137226" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="11091981" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23854,8 +23864,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11137226" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="11091981" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{23D87327-71F4-48D0-986F-7F66A9CA5030}">
@@ -23865,8 +23875,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11137226" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="11091981" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23967,8 +23977,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11137226" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="11091981" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{705E3CF3-AD29-44CF-8A21-A256A4236ECA}">
@@ -23978,8 +23988,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11695331" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="11647819" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24080,8 +24090,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11695331" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="11647819" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{38B49250-75E7-4441-9A27-39B3670C462C}">
@@ -24091,8 +24101,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11840671" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="11792569" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24193,8 +24203,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11840671" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="11792569" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9BCCBE2B-EE0E-4E62-84A7-131453F261FE}">
@@ -24204,8 +24214,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11840671" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="11792569" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24306,8 +24316,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11840671" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="11792569" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7D351816-7249-4C05-91C0-3491952B7781}">
@@ -24317,8 +24327,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11840671" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="11792569" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24419,8 +24429,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11840671" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="11792569" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ADEAA3FF-F634-47DE-8844-A10560CC1EC8}">
@@ -24430,8 +24440,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13453945" y="1651648"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13155015" y="1711333"/>
+          <a:ext cx="1067545" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24508,12 +24518,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -24526,14 +24536,32 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" kern="1200"/>
-            <a:t>PÓS IMPLANTAÇÃO</a:t>
+            <a:rPr lang="pt-BR" sz="800" b="1" kern="1200"/>
+            <a:t>PÓS IMPLANTAÇÃO/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="800" b="1" kern="1200"/>
+            <a:t>MANUTENÇÃO</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13453945" y="1651648"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13155015" y="1711333"/>
+        <a:ext cx="1067545" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8B66C7DD-A74C-42D6-9053-6474A7B6F3F7}">
@@ -24543,8 +24571,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12398777" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="12348407" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24621,12 +24649,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -24639,14 +24667,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" b="1" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="600" b="1" kern="1200"/>
             <a:t>LANÇAMENTO</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12398777" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="12348407" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DADE0B48-34D6-4A90-B868-AC45CED4B994}">
@@ -24656,8 +24684,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12544117" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="12493157" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24763,8 +24791,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12544117" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="12493157" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A61B1158-AD48-4FDE-9AD6-9D79FABF5551}">
@@ -24774,8 +24802,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12544117" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="12493157" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24881,8 +24909,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12544117" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="12493157" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{436B62E2-FB7F-4E75-8F1D-09D806E30211}">
@@ -24892,8 +24920,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12544117" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="12493157" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24999,8 +25027,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12544117" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="12493157" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0AD35396-15D9-47B2-9AD9-41BFAEE0D928}">
@@ -25010,8 +25038,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12544117" y="3715475"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="12493157" y="3766776"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25112,8 +25140,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12544117" y="3715475"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="12493157" y="3766776"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{05F683E2-330C-40C4-9190-E65F5EDC75CF}">
@@ -25123,8 +25151,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13102222" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13048995" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25201,12 +25229,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -25219,14 +25247,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" b="1" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="600" b="1" kern="1200"/>
             <a:t>PÓS-LANÇAMENTO</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13102222" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13048995" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A5DF8A86-0097-443C-87C2-CF899ADE7DE2}">
@@ -25236,8 +25264,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13247562" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13193744" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25338,8 +25366,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13247562" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13193744" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C0C66002-6539-4A5A-A569-82420CBEF5EF}">
@@ -25349,8 +25377,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13247562" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13193744" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25451,8 +25479,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13247562" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13193744" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0E86C646-21FD-4A5A-B8EB-13EEC8D4DB3B}">
@@ -25462,8 +25490,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13247562" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13193744" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25564,8 +25592,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13247562" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13193744" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F4C31505-D6DF-47AA-9843-C7210EBB4F84}">
@@ -25575,8 +25603,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13805668" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13749582" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25695,8 +25723,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13805668" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13749582" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E0236C2B-A9D3-4E97-8A2C-9AEC28E97E16}">
@@ -25706,8 +25734,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13951007" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13894332" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25808,8 +25836,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13951007" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13894332" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{37EA8AB1-7584-4A32-9145-69668D71E8F4}">
@@ -25819,8 +25847,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13951007" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13894332" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25921,8 +25949,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13951007" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13894332" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2477F0E8-C553-4E88-927C-3C8AE2E8F105}">
@@ -25932,8 +25960,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13951007" y="3302710"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="13894332" y="3355687"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26034,8 +26062,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13951007" y="3302710"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="13894332" y="3355687"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BE47A5DE-EE30-49CB-AFBD-8B1C93DA5FCE}">
@@ -26045,8 +26073,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14509113" y="2064413"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="14450170" y="2122422"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26123,12 +26151,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -26141,14 +26169,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="500" b="1" kern="1200"/>
+            <a:rPr lang="pt-BR" sz="600" b="1" kern="1200"/>
             <a:t>EXPANSÃO</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14509113" y="2064413"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="14450170" y="2122422"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EA71E183-84E8-48D4-A9A6-8F0910470349}">
@@ -26158,8 +26186,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14654453" y="2477179"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="14594920" y="2533510"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26260,8 +26288,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14654453" y="2477179"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="14594920" y="2533510"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9604BD11-597B-45A2-8DAF-0E2330BF583C}">
@@ -26271,8 +26299,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14654453" y="2889944"/>
-          <a:ext cx="581359" cy="290679"/>
+          <a:off x="14594920" y="2944599"/>
+          <a:ext cx="578998" cy="289499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26373,8 +26401,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14654453" y="2889944"/>
-        <a:ext cx="581359" cy="290679"/>
+        <a:off x="14594920" y="2944599"/>
+        <a:ext cx="578998" cy="289499"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -28824,6 +28852,246 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700C3D0E-4AA0-4095-A9D2-1EB9C7689894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6879167" y="878417"/>
+          <a:ext cx="2010833" cy="433916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CALOGIC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>486834</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>296333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector: Angulado 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7881E454-803C-4502-BB10-F33AF7D02F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1672167" y="1058333"/>
+          <a:ext cx="5132916" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100103"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370417</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>306917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>391584</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector: Angulado 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F3DBDA-1682-4441-83EE-5F4E96015333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8921750" y="1068917"/>
+          <a:ext cx="5545667" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B18305-289B-4B3F-AA5C-351C289258EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7839808" y="1323731"/>
+          <a:ext cx="3256" cy="720481"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30770,7 +31038,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O170" sqref="O170"/>
     </sheetView>
   </sheetViews>
@@ -30789,8 +31057,8 @@
   </sheetPr>
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D64" activeCellId="1" sqref="E62 A64:XFD77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30808,8 +31076,8 @@
       <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="251"/>
-      <c r="B3" s="251"/>
+      <c r="A3" s="306"/>
+      <c r="B3" s="306"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -31268,7 +31536,7 @@
   <dimension ref="A2:R112"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A94" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="9" topLeftCell="A85" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -31336,10 +31604,10 @@
       <c r="L9" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="258"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="258"/>
+      <c r="O9" s="313"/>
+      <c r="P9" s="313"/>
+      <c r="Q9" s="313"/>
+      <c r="R9" s="313"/>
     </row>
     <row r="10" spans="2:18" s="8" customFormat="1" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="134">
@@ -31348,13 +31616,13 @@
       <c r="C10" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="292">
+      <c r="D10" s="261">
         <v>1</v>
       </c>
-      <c r="E10" s="293">
+      <c r="E10" s="262">
         <v>45880</v>
       </c>
-      <c r="F10" s="294">
+      <c r="F10" s="263">
         <v>45887</v>
       </c>
       <c r="G10" s="137">
@@ -31363,10 +31631,10 @@
       <c r="H10" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="299" t="s">
+      <c r="I10" s="268" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="300" t="s">
+      <c r="J10" s="269" t="s">
         <v>248</v>
       </c>
       <c r="K10" s="141"/>
@@ -31534,10 +31802,10 @@
       <c r="D15" s="149" t="s">
         <v>306</v>
       </c>
-      <c r="E15" s="289">
+      <c r="E15" s="258">
         <v>45887</v>
       </c>
-      <c r="F15" s="289">
+      <c r="F15" s="258">
         <v>45893</v>
       </c>
       <c r="G15" s="156">
@@ -31546,10 +31814,10 @@
       <c r="H15" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="I15" s="299" t="s">
+      <c r="I15" s="268" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="300" t="s">
+      <c r="J15" s="269" t="s">
         <v>248</v>
       </c>
       <c r="K15" s="175">
@@ -31569,7 +31837,7 @@
       <c r="C16" s="166" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="285">
+      <c r="D16" s="254">
         <v>2</v>
       </c>
       <c r="E16" s="239">
@@ -31607,7 +31875,7 @@
       <c r="C17" s="217" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="286" t="s">
+      <c r="D17" s="255" t="s">
         <v>309</v>
       </c>
       <c r="E17" s="240">
@@ -31644,7 +31912,7 @@
       <c r="C18" s="217" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="286" t="s">
+      <c r="D18" s="255" t="s">
         <v>309</v>
       </c>
       <c r="E18" s="240">
@@ -31681,7 +31949,7 @@
       <c r="C19" s="217" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="287" t="s">
+      <c r="D19" s="256" t="s">
         <v>309</v>
       </c>
       <c r="E19" s="240">
@@ -31718,7 +31986,7 @@
       <c r="C20" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="287" t="s">
+      <c r="D20" s="256" t="s">
         <v>375</v>
       </c>
       <c r="E20" s="240">
@@ -31755,7 +32023,7 @@
       <c r="C21" s="218" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="287" t="s">
+      <c r="D21" s="256" t="s">
         <v>375</v>
       </c>
       <c r="E21" s="240">
@@ -31792,7 +32060,7 @@
       <c r="C22" s="218" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="288" t="s">
+      <c r="D22" s="257" t="s">
         <v>375</v>
       </c>
       <c r="E22" s="240">
@@ -31832,10 +32100,10 @@
       <c r="D23" s="149" t="s">
         <v>460</v>
       </c>
-      <c r="E23" s="295">
+      <c r="E23" s="264">
         <v>45894</v>
       </c>
-      <c r="F23" s="295">
+      <c r="F23" s="264">
         <v>45902</v>
       </c>
       <c r="G23" s="150">
@@ -31856,8 +32124,8 @@
       </c>
       <c r="L23" s="152"/>
       <c r="O23" s="235"/>
-      <c r="P23" s="257"/>
-      <c r="Q23" s="257"/>
+      <c r="P23" s="312"/>
+      <c r="Q23" s="312"/>
       <c r="R23" s="236"/>
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31908,7 +32176,7 @@
       <c r="C25" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="286" t="s">
+      <c r="D25" s="255" t="s">
         <v>315</v>
       </c>
       <c r="E25" s="240">
@@ -31941,7 +32209,7 @@
       <c r="C26" s="217" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="287" t="s">
+      <c r="D26" s="256" t="s">
         <v>315</v>
       </c>
       <c r="E26" s="240">
@@ -31974,7 +32242,7 @@
       <c r="C27" s="217" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="287" t="s">
+      <c r="D27" s="256" t="s">
         <v>315</v>
       </c>
       <c r="E27" s="240">
@@ -32008,7 +32276,7 @@
       <c r="C28" s="217" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="287" t="s">
+      <c r="D28" s="256" t="s">
         <v>318</v>
       </c>
       <c r="E28" s="240">
@@ -32045,7 +32313,7 @@
       <c r="C29" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="D29" s="287" t="s">
+      <c r="D29" s="256" t="s">
         <v>318</v>
       </c>
       <c r="E29" s="240">
@@ -32079,7 +32347,7 @@
       <c r="C30" s="232" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="256" t="s">
         <v>320</v>
       </c>
       <c r="E30" s="240">
@@ -32113,7 +32381,7 @@
       <c r="C31" s="217" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="287" t="s">
+      <c r="D31" s="256" t="s">
         <v>320</v>
       </c>
       <c r="E31" s="240">
@@ -32147,7 +32415,7 @@
       <c r="C32" s="217" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="287" t="s">
+      <c r="D32" s="256" t="s">
         <v>319</v>
       </c>
       <c r="E32" s="240">
@@ -32181,7 +32449,7 @@
       <c r="C33" s="218" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="283" t="s">
+      <c r="D33" s="252" t="s">
         <v>461</v>
       </c>
       <c r="E33" s="240">
@@ -32217,10 +32485,10 @@
       <c r="D34" s="147" t="s">
         <v>324</v>
       </c>
-      <c r="E34" s="289">
+      <c r="E34" s="258">
         <v>45903</v>
       </c>
-      <c r="F34" s="289">
+      <c r="F34" s="258">
         <v>45940</v>
       </c>
       <c r="G34" s="156">
@@ -32248,7 +32516,7 @@
       <c r="C35" s="219" t="s">
         <v>377</v>
       </c>
-      <c r="D35" s="282">
+      <c r="D35" s="251">
         <v>4</v>
       </c>
       <c r="E35" s="240">
@@ -32282,7 +32550,7 @@
       <c r="C36" s="219" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="284" t="s">
+      <c r="D36" s="253" t="s">
         <v>325</v>
       </c>
       <c r="E36" s="240">
@@ -32316,7 +32584,7 @@
       <c r="C37" s="219" t="s">
         <v>211</v>
       </c>
-      <c r="D37" s="287" t="s">
+      <c r="D37" s="256" t="s">
         <v>325</v>
       </c>
       <c r="E37" s="240">
@@ -32350,7 +32618,7 @@
       <c r="C38" s="219" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="259" t="s">
         <v>325</v>
       </c>
       <c r="E38" s="240">
@@ -32384,7 +32652,7 @@
       <c r="C39" s="219" t="s">
         <v>213</v>
       </c>
-      <c r="D39" s="290" t="s">
+      <c r="D39" s="259" t="s">
         <v>325</v>
       </c>
       <c r="E39" s="240">
@@ -32418,7 +32686,7 @@
       <c r="C40" s="219" t="s">
         <v>214</v>
       </c>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="259" t="s">
         <v>325</v>
       </c>
       <c r="E40" s="240">
@@ -32452,7 +32720,7 @@
       <c r="C41" s="219" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="259" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="240">
@@ -32486,7 +32754,7 @@
       <c r="C42" s="242" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="259" t="s">
         <v>331</v>
       </c>
       <c r="E42" s="240">
@@ -32520,7 +32788,7 @@
       <c r="C43" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="259" t="s">
         <v>331</v>
       </c>
       <c r="E43" s="240">
@@ -32554,7 +32822,7 @@
       <c r="C44" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="290" t="s">
+      <c r="D44" s="259" t="s">
         <v>333</v>
       </c>
       <c r="E44" s="240">
@@ -32588,7 +32856,7 @@
       <c r="C45" s="217" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="290" t="s">
+      <c r="D45" s="259" t="s">
         <v>334</v>
       </c>
       <c r="E45" s="240">
@@ -32622,7 +32890,7 @@
       <c r="C46" s="217" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="287" t="s">
+      <c r="D46" s="256" t="s">
         <v>462</v>
       </c>
       <c r="E46" s="240">
@@ -32656,7 +32924,7 @@
       <c r="C47" s="217" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="287" t="s">
+      <c r="D47" s="256" t="s">
         <v>314</v>
       </c>
       <c r="E47" s="240">
@@ -32690,7 +32958,7 @@
       <c r="C48" s="217" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="287" t="s">
+      <c r="D48" s="256" t="s">
         <v>336</v>
       </c>
       <c r="E48" s="240">
@@ -32724,7 +32992,7 @@
       <c r="C49" s="217" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="287" t="s">
+      <c r="D49" s="256" t="s">
         <v>336</v>
       </c>
       <c r="E49" s="240">
@@ -32758,7 +33026,7 @@
       <c r="C50" s="217" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="287" t="s">
+      <c r="D50" s="256" t="s">
         <v>336</v>
       </c>
       <c r="E50" s="240">
@@ -32792,7 +33060,7 @@
       <c r="C51" s="217" t="s">
         <v>225</v>
       </c>
-      <c r="D51" s="287" t="s">
+      <c r="D51" s="256" t="s">
         <v>336</v>
       </c>
       <c r="E51" s="240">
@@ -32826,7 +33094,7 @@
       <c r="C52" s="217" t="s">
         <v>226</v>
       </c>
-      <c r="D52" s="287" t="s">
+      <c r="D52" s="256" t="s">
         <v>336</v>
       </c>
       <c r="E52" s="240">
@@ -32860,7 +33128,7 @@
       <c r="C53" s="217" t="s">
         <v>227</v>
       </c>
-      <c r="D53" s="287" t="s">
+      <c r="D53" s="256" t="s">
         <v>463</v>
       </c>
       <c r="E53" s="240">
@@ -32894,7 +33162,7 @@
       <c r="C54" s="217" t="s">
         <v>228</v>
       </c>
-      <c r="D54" s="287" t="s">
+      <c r="D54" s="256" t="s">
         <v>463</v>
       </c>
       <c r="E54" s="240">
@@ -32928,7 +33196,7 @@
       <c r="C55" s="217" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="287" t="s">
+      <c r="D55" s="256" t="s">
         <v>463</v>
       </c>
       <c r="E55" s="240">
@@ -32962,7 +33230,7 @@
       <c r="C56" s="217" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="291" t="s">
+      <c r="D56" s="260" t="s">
         <v>345</v>
       </c>
       <c r="E56" s="240">
@@ -32996,7 +33264,7 @@
       <c r="C57" s="217" t="s">
         <v>231</v>
       </c>
-      <c r="D57" s="287" t="s">
+      <c r="D57" s="256" t="s">
         <v>480</v>
       </c>
       <c r="E57" s="240">
@@ -33033,10 +33301,10 @@
       <c r="D58" s="149" t="s">
         <v>470</v>
       </c>
-      <c r="E58" s="289">
+      <c r="E58" s="258">
         <v>45941</v>
       </c>
-      <c r="F58" s="289">
+      <c r="F58" s="258">
         <v>45945</v>
       </c>
       <c r="G58" s="156">
@@ -33167,10 +33435,10 @@
       <c r="D62" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="E62" s="295">
+      <c r="E62" s="264">
         <v>45946</v>
       </c>
-      <c r="F62" s="295">
+      <c r="F62" s="264">
         <v>45950</v>
       </c>
       <c r="G62" s="150">
@@ -33466,10 +33734,10 @@
       <c r="D71" s="122" t="s">
         <v>358</v>
       </c>
-      <c r="E71" s="296">
+      <c r="E71" s="265">
         <v>45949</v>
       </c>
-      <c r="F71" s="296">
+      <c r="F71" s="265">
         <v>45950</v>
       </c>
       <c r="G71" s="113">
@@ -33499,10 +33767,10 @@
       <c r="D72" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="E72" s="296">
+      <c r="E72" s="265">
         <v>45949</v>
       </c>
-      <c r="F72" s="296">
+      <c r="F72" s="265">
         <v>45950</v>
       </c>
       <c r="G72" s="113">
@@ -33532,10 +33800,10 @@
       <c r="D73" s="122" t="s">
         <v>360</v>
       </c>
-      <c r="E73" s="296">
+      <c r="E73" s="265">
         <v>45949</v>
       </c>
-      <c r="F73" s="296">
+      <c r="F73" s="265">
         <v>45950</v>
       </c>
       <c r="G73" s="113">
@@ -33565,10 +33833,10 @@
       <c r="D74" s="122" t="s">
         <v>361</v>
       </c>
-      <c r="E74" s="296">
+      <c r="E74" s="265">
         <v>45949</v>
       </c>
-      <c r="F74" s="296">
+      <c r="F74" s="265">
         <v>45950</v>
       </c>
       <c r="G74" s="113">
@@ -33598,10 +33866,10 @@
       <c r="D75" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="E75" s="295">
+      <c r="E75" s="264">
         <v>45951</v>
       </c>
-      <c r="F75" s="295">
+      <c r="F75" s="264">
         <v>45952</v>
       </c>
       <c r="G75" s="150">
@@ -33767,10 +34035,10 @@
       <c r="D80" s="149" t="s">
         <v>366</v>
       </c>
-      <c r="E80" s="295">
+      <c r="E80" s="264">
         <v>45953</v>
       </c>
-      <c r="F80" s="295">
+      <c r="F80" s="264">
         <v>45955</v>
       </c>
       <c r="G80" s="150">
@@ -33901,10 +34169,10 @@
       <c r="D84" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="E84" s="295">
+      <c r="E84" s="264">
         <v>45956</v>
       </c>
-      <c r="F84" s="295">
+      <c r="F84" s="264">
         <v>45958</v>
       </c>
       <c r="G84" s="150">
@@ -34035,10 +34303,10 @@
       <c r="D88" s="210" t="s">
         <v>372</v>
       </c>
-      <c r="E88" s="297">
+      <c r="E88" s="266">
         <v>45959</v>
       </c>
-      <c r="F88" s="297">
+      <c r="F88" s="266">
         <v>45960</v>
       </c>
       <c r="G88" s="163">
@@ -34070,10 +34338,10 @@
       <c r="D89" s="212" t="s">
         <v>372</v>
       </c>
-      <c r="E89" s="298">
+      <c r="E89" s="267">
         <v>45959</v>
       </c>
-      <c r="F89" s="298">
+      <c r="F89" s="267">
         <v>45960</v>
       </c>
       <c r="G89" s="160">
@@ -34103,10 +34371,10 @@
       <c r="D90" s="214" t="s">
         <v>373</v>
       </c>
-      <c r="E90" s="298">
+      <c r="E90" s="267">
         <v>45959</v>
       </c>
-      <c r="F90" s="298">
+      <c r="F90" s="267">
         <v>45960</v>
       </c>
       <c r="G90" s="160">
@@ -34127,8 +34395,8 @@
       <c r="L90" s="132"/>
     </row>
     <row r="91" spans="2:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="255"/>
-      <c r="C91" s="256"/>
+      <c r="B91" s="310"/>
+      <c r="C91" s="311"/>
       <c r="D91" s="216"/>
       <c r="E91" s="215"/>
       <c r="F91" s="215"/>
@@ -34145,15 +34413,15 @@
     <row r="92" spans="2:12" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="119"/>
       <c r="C92" s="133"/>
-      <c r="D92" s="252" t="s">
+      <c r="D92" s="307" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="253"/>
-      <c r="F92" s="253"/>
-      <c r="G92" s="254"/>
-      <c r="H92" s="254"/>
-      <c r="I92" s="254"/>
-      <c r="J92" s="254"/>
+      <c r="E92" s="308"/>
+      <c r="F92" s="308"/>
+      <c r="G92" s="309"/>
+      <c r="H92" s="309"/>
+      <c r="I92" s="309"/>
+      <c r="J92" s="309"/>
       <c r="K92" s="206">
         <f>SUM(K15+K23+K34+K58+K75+K80+K62+K84+K88+K91)</f>
         <v>0</v>
@@ -34219,36 +34487,36 @@
     </row>
     <row r="7" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" s="14" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="312" t="s">
+      <c r="B8" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="313" t="s">
+      <c r="C8" s="282" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="313" t="s">
+      <c r="D8" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="313" t="s">
+      <c r="E8" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="313" t="s">
+      <c r="F8" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="313" t="s">
+      <c r="G8" s="282" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="313" t="s">
+      <c r="H8" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="314" t="s">
+      <c r="I8" s="283" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="315" t="s">
+      <c r="B9" s="284" t="s">
         <v>304</v>
       </c>
-      <c r="C9" s="319" t="s">
+      <c r="C9" s="288" t="s">
         <v>252</v>
       </c>
       <c r="D9" s="122"/>
@@ -34270,10 +34538,10 @@
       <c r="J9" s="189"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="316" t="s">
+      <c r="B10" s="285" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="320" t="s">
+      <c r="C10" s="289" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="109" t="s">
@@ -34297,10 +34565,10 @@
       <c r="J10" s="189"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="317" t="s">
+      <c r="B11" s="286" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="321" t="s">
+      <c r="C11" s="290" t="s">
         <v>254</v>
       </c>
       <c r="D11" s="109" t="s">
@@ -34322,10 +34590,10 @@
       <c r="J11" s="189"/>
     </row>
     <row r="12" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="318" t="s">
+      <c r="B12" s="287" t="s">
         <v>472</v>
       </c>
-      <c r="C12" s="320" t="s">
+      <c r="C12" s="289" t="s">
         <v>255</v>
       </c>
       <c r="D12" s="109" t="s">
@@ -34347,10 +34615,10 @@
       <c r="J12" s="189"/>
     </row>
     <row r="13" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="322" t="s">
+      <c r="B13" s="291" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="301" t="s">
+      <c r="C13" s="270" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="122" t="s">
@@ -34374,13 +34642,13 @@
       <c r="J13" s="189"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="322" t="s">
+      <c r="B14" s="291" t="s">
         <v>305</v>
       </c>
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="270" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="286" t="s">
+      <c r="D14" s="255" t="s">
         <v>309</v>
       </c>
       <c r="E14" s="198">
@@ -34401,13 +34669,13 @@
       <c r="J14" s="189"/>
     </row>
     <row r="15" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="322" t="s">
+      <c r="B15" s="291" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="270" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="286" t="s">
+      <c r="D15" s="255" t="s">
         <v>309</v>
       </c>
       <c r="E15" s="198">
@@ -34428,13 +34696,13 @@
       <c r="J15" s="189"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="322" t="s">
+      <c r="B16" s="291" t="s">
         <v>311</v>
       </c>
-      <c r="C16" s="301" t="s">
+      <c r="C16" s="270" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="287" t="s">
+      <c r="D16" s="256" t="s">
         <v>309</v>
       </c>
       <c r="E16" s="197">
@@ -34455,13 +34723,13 @@
       <c r="J16" s="189"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="322" t="s">
+      <c r="B17" s="291" t="s">
         <v>312</v>
       </c>
-      <c r="C17" s="301" t="s">
+      <c r="C17" s="270" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="287" t="s">
+      <c r="D17" s="256" t="s">
         <v>375</v>
       </c>
       <c r="E17" s="185">
@@ -34482,13 +34750,13 @@
       <c r="J17" s="189"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="322" t="s">
+      <c r="B18" s="291" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="301" t="s">
+      <c r="C18" s="270" t="s">
         <v>259</v>
       </c>
-      <c r="D18" s="287" t="s">
+      <c r="D18" s="256" t="s">
         <v>375</v>
       </c>
       <c r="E18" s="185">
@@ -34509,13 +34777,13 @@
       <c r="J18" s="189"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="322" t="s">
+      <c r="B19" s="291" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="301" t="s">
+      <c r="C19" s="270" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="336" t="s">
+      <c r="D19" s="305" t="s">
         <v>375</v>
       </c>
       <c r="E19" s="185">
@@ -34536,10 +34804,10 @@
       <c r="J19" s="189"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="323" t="s">
+      <c r="B20" s="292" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="302" t="s">
+      <c r="C20" s="271" t="s">
         <v>260</v>
       </c>
       <c r="D20" s="122" t="s">
@@ -34563,13 +34831,13 @@
       <c r="J20" s="189"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="323" t="s">
+      <c r="B21" s="292" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="302" t="s">
+      <c r="C21" s="271" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="286" t="s">
+      <c r="D21" s="255" t="s">
         <v>315</v>
       </c>
       <c r="E21" s="185">
@@ -34590,13 +34858,13 @@
       <c r="J21" s="189"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="324" t="s">
+      <c r="B22" s="293" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="302" t="s">
+      <c r="C22" s="271" t="s">
         <v>262</v>
       </c>
-      <c r="D22" s="287" t="s">
+      <c r="D22" s="256" t="s">
         <v>315</v>
       </c>
       <c r="E22" s="185">
@@ -34617,13 +34885,13 @@
       <c r="J22" s="189"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="324" t="s">
+      <c r="B23" s="293" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="302" t="s">
+      <c r="C23" s="271" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="287" t="s">
+      <c r="D23" s="256" t="s">
         <v>315</v>
       </c>
       <c r="E23" s="185">
@@ -34644,13 +34912,13 @@
       <c r="J23" s="189"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="324" t="s">
+      <c r="B24" s="293" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="302" t="s">
+      <c r="C24" s="271" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="287" t="s">
+      <c r="D24" s="256" t="s">
         <v>318</v>
       </c>
       <c r="E24" s="185">
@@ -34671,13 +34939,13 @@
       <c r="J24" s="189"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="324" t="s">
+      <c r="B25" s="293" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="302" t="s">
+      <c r="C25" s="271" t="s">
         <v>265</v>
       </c>
-      <c r="D25" s="287" t="s">
+      <c r="D25" s="256" t="s">
         <v>318</v>
       </c>
       <c r="E25" s="185">
@@ -34698,13 +34966,13 @@
       <c r="J25" s="189"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="324" t="s">
+      <c r="B26" s="293" t="s">
         <v>321</v>
       </c>
-      <c r="C26" s="302" t="s">
+      <c r="C26" s="271" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="287" t="s">
+      <c r="D26" s="256" t="s">
         <v>320</v>
       </c>
       <c r="E26" s="185">
@@ -34725,10 +34993,10 @@
       <c r="J26" s="189"/>
     </row>
     <row r="27" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="325" t="s">
+      <c r="B27" s="294" t="s">
         <v>325</v>
       </c>
-      <c r="C27" s="303" t="s">
+      <c r="C27" s="272" t="s">
         <v>210</v>
       </c>
       <c r="D27" s="186" t="s">
@@ -34752,10 +35020,10 @@
       <c r="J27" s="189"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="325" t="s">
+      <c r="B28" s="294" t="s">
         <v>326</v>
       </c>
-      <c r="C28" s="303" t="s">
+      <c r="C28" s="272" t="s">
         <v>267</v>
       </c>
       <c r="D28" s="186" t="s">
@@ -34779,10 +35047,10 @@
       <c r="J28" s="189"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="325" t="s">
+      <c r="B29" s="294" t="s">
         <v>327</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="272" t="s">
         <v>268</v>
       </c>
       <c r="D29" s="186" t="s">
@@ -34806,13 +35074,13 @@
       <c r="J29" s="189"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="326" t="s">
+      <c r="B30" s="295" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="304" t="s">
+      <c r="C30" s="273" t="s">
         <v>269</v>
       </c>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="256" t="s">
         <v>321</v>
       </c>
       <c r="E30" s="185">
@@ -34833,10 +35101,10 @@
       <c r="J30" s="189"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="326" t="s">
+      <c r="B31" s="295" t="s">
         <v>329</v>
       </c>
-      <c r="C31" s="305" t="s">
+      <c r="C31" s="274" t="s">
         <v>270</v>
       </c>
       <c r="D31" s="186" t="s">
@@ -34860,10 +35128,10 @@
       <c r="J31" s="189"/>
     </row>
     <row r="32" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="326" t="s">
+      <c r="B32" s="295" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="304" t="s">
+      <c r="C32" s="273" t="s">
         <v>271</v>
       </c>
       <c r="D32" s="186" t="s">
@@ -34887,10 +35155,10 @@
       <c r="J32" s="189"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="326" t="s">
+      <c r="B33" s="295" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="304" t="s">
+      <c r="C33" s="273" t="s">
         <v>272</v>
       </c>
       <c r="D33" s="186" t="s">
@@ -34914,10 +35182,10 @@
       <c r="J33" s="189"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="327" t="s">
+      <c r="B34" s="296" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="306" t="s">
+      <c r="C34" s="275" t="s">
         <v>273</v>
       </c>
       <c r="D34" s="186" t="s">
@@ -34941,10 +35209,10 @@
       <c r="J34" s="189"/>
     </row>
     <row r="35" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="327" t="s">
+      <c r="B35" s="296" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="306" t="s">
+      <c r="C35" s="275" t="s">
         <v>274</v>
       </c>
       <c r="D35" s="186" t="s">
@@ -34968,10 +35236,10 @@
       <c r="J35" s="189"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="327" t="s">
+      <c r="B36" s="296" t="s">
         <v>334</v>
       </c>
-      <c r="C36" s="306" t="s">
+      <c r="C36" s="275" t="s">
         <v>275</v>
       </c>
       <c r="D36" s="186" t="s">
@@ -34995,10 +35263,10 @@
       <c r="J36" s="189"/>
     </row>
     <row r="37" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="327" t="s">
+      <c r="B37" s="296" t="s">
         <v>335</v>
       </c>
-      <c r="C37" s="307" t="s">
+      <c r="C37" s="276" t="s">
         <v>276</v>
       </c>
       <c r="D37" s="186" t="s">
@@ -35022,10 +35290,10 @@
       <c r="J37" s="189"/>
     </row>
     <row r="38" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="328" t="s">
+      <c r="B38" s="297" t="s">
         <v>336</v>
       </c>
-      <c r="C38" s="306" t="s">
+      <c r="C38" s="275" t="s">
         <v>277</v>
       </c>
       <c r="D38" s="186" t="s">
@@ -35049,10 +35317,10 @@
       <c r="J38" s="189"/>
     </row>
     <row r="39" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="329" t="s">
+      <c r="B39" s="298" t="s">
         <v>337</v>
       </c>
-      <c r="C39" s="308" t="s">
+      <c r="C39" s="277" t="s">
         <v>278</v>
       </c>
       <c r="D39" s="186" t="s">
@@ -35076,10 +35344,10 @@
       <c r="J39" s="189"/>
     </row>
     <row r="40" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="329" t="s">
+      <c r="B40" s="298" t="s">
         <v>338</v>
       </c>
-      <c r="C40" s="308" t="s">
+      <c r="C40" s="277" t="s">
         <v>279</v>
       </c>
       <c r="D40" s="186" t="s">
@@ -35103,10 +35371,10 @@
       <c r="J40" s="189"/>
     </row>
     <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="329" t="s">
+      <c r="B41" s="298" t="s">
         <v>339</v>
       </c>
-      <c r="C41" s="308" t="s">
+      <c r="C41" s="277" t="s">
         <v>280</v>
       </c>
       <c r="D41" s="186" t="s">
@@ -35130,10 +35398,10 @@
       <c r="J41" s="189"/>
     </row>
     <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="298" t="s">
         <v>340</v>
       </c>
-      <c r="C42" s="308" t="s">
+      <c r="C42" s="277" t="s">
         <v>281</v>
       </c>
       <c r="D42" s="186" t="s">
@@ -35157,10 +35425,10 @@
       <c r="J42" s="189"/>
     </row>
     <row r="43" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="329" t="s">
+      <c r="B43" s="298" t="s">
         <v>341</v>
       </c>
-      <c r="C43" s="308" t="s">
+      <c r="C43" s="277" t="s">
         <v>282</v>
       </c>
       <c r="D43" s="186" t="s">
@@ -35184,10 +35452,10 @@
       <c r="J43" s="189"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="330" t="s">
+      <c r="B44" s="299" t="s">
         <v>342</v>
       </c>
-      <c r="C44" s="308" t="s">
+      <c r="C44" s="277" t="s">
         <v>283</v>
       </c>
       <c r="D44" s="186" t="s">
@@ -35211,10 +35479,10 @@
       <c r="J44" s="189"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="315" t="s">
+      <c r="B45" s="284" t="s">
         <v>348</v>
       </c>
-      <c r="C45" s="309" t="s">
+      <c r="C45" s="278" t="s">
         <v>284</v>
       </c>
       <c r="D45" s="186" t="s">
@@ -35238,10 +35506,10 @@
       <c r="J45" s="189"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="316" t="s">
+      <c r="B46" s="285" t="s">
         <v>349</v>
       </c>
-      <c r="C46" s="309" t="s">
+      <c r="C46" s="278" t="s">
         <v>240</v>
       </c>
       <c r="D46" s="186" t="s">
@@ -35265,10 +35533,10 @@
       <c r="J46" s="189"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="317" t="s">
+      <c r="B47" s="286" t="s">
         <v>350</v>
       </c>
-      <c r="C47" s="309" t="s">
+      <c r="C47" s="278" t="s">
         <v>285</v>
       </c>
       <c r="D47" s="186" t="s">
@@ -35292,10 +35560,10 @@
       <c r="J47" s="189"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="331" t="s">
+      <c r="B48" s="300" t="s">
         <v>473</v>
       </c>
-      <c r="C48" s="309" t="s">
+      <c r="C48" s="278" t="s">
         <v>286</v>
       </c>
       <c r="D48" s="187" t="s">
@@ -35319,10 +35587,10 @@
       <c r="J48" s="189"/>
     </row>
     <row r="49" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="331" t="s">
+      <c r="B49" s="300" t="s">
         <v>474</v>
       </c>
-      <c r="C49" s="309" t="s">
+      <c r="C49" s="278" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="187" t="s">
@@ -35346,10 +35614,10 @@
       <c r="J49" s="189"/>
     </row>
     <row r="50" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="332" t="s">
+      <c r="B50" s="301" t="s">
         <v>351</v>
       </c>
-      <c r="C50" s="310" t="s">
+      <c r="C50" s="279" t="s">
         <v>288</v>
       </c>
       <c r="D50" s="187" t="s">
@@ -35374,7 +35642,7 @@
       <c r="B51" s="241" t="s">
         <v>352</v>
       </c>
-      <c r="C51" s="310" t="s">
+      <c r="C51" s="279" t="s">
         <v>289</v>
       </c>
       <c r="D51" s="187" t="s">
@@ -35399,7 +35667,7 @@
       <c r="B52" s="241" t="s">
         <v>353</v>
       </c>
-      <c r="C52" s="310" t="s">
+      <c r="C52" s="279" t="s">
         <v>290</v>
       </c>
       <c r="D52" s="187" t="s">
@@ -35424,7 +35692,7 @@
       <c r="B53" s="241" t="s">
         <v>354</v>
       </c>
-      <c r="C53" s="310" t="s">
+      <c r="C53" s="279" t="s">
         <v>291</v>
       </c>
       <c r="D53" s="187" t="s">
@@ -35446,10 +35714,10 @@
       <c r="J53" s="189"/>
     </row>
     <row r="54" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="332" t="s">
+      <c r="B54" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="C54" s="310" t="s">
+      <c r="C54" s="279" t="s">
         <v>292</v>
       </c>
       <c r="D54" s="199" t="s">
@@ -35471,10 +35739,10 @@
       <c r="J54" s="189"/>
     </row>
     <row r="55" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="332" t="s">
+      <c r="B55" s="301" t="s">
         <v>356</v>
       </c>
-      <c r="C55" s="310" t="s">
+      <c r="C55" s="279" t="s">
         <v>293</v>
       </c>
       <c r="D55" s="199" t="s">
@@ -35496,10 +35764,10 @@
       <c r="J55" s="189"/>
     </row>
     <row r="56" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="332" t="s">
+      <c r="B56" s="301" t="s">
         <v>357</v>
       </c>
-      <c r="C56" s="310" t="s">
+      <c r="C56" s="279" t="s">
         <v>294</v>
       </c>
       <c r="D56" s="199" t="s">
@@ -35521,10 +35789,10 @@
       <c r="J56" s="189"/>
     </row>
     <row r="57" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="333" t="s">
+      <c r="B57" s="302" t="s">
         <v>363</v>
       </c>
-      <c r="C57" s="311" t="s">
+      <c r="C57" s="280" t="s">
         <v>295</v>
       </c>
       <c r="D57" s="199" t="s">
@@ -35546,10 +35814,10 @@
       <c r="J57" s="189"/>
     </row>
     <row r="58" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="334" t="s">
+      <c r="B58" s="303" t="s">
         <v>364</v>
       </c>
-      <c r="C58" s="311" t="s">
+      <c r="C58" s="280" t="s">
         <v>296</v>
       </c>
       <c r="D58" s="199" t="s">
@@ -35571,10 +35839,10 @@
       <c r="J58" s="189"/>
     </row>
     <row r="59" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="334" t="s">
+      <c r="B59" s="303" t="s">
         <v>365</v>
       </c>
-      <c r="C59" s="311" t="s">
+      <c r="C59" s="280" t="s">
         <v>297</v>
       </c>
       <c r="D59" s="199" t="s">
@@ -35596,10 +35864,10 @@
       <c r="J59" s="189"/>
     </row>
     <row r="60" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="334" t="s">
+      <c r="B60" s="303" t="s">
         <v>366</v>
       </c>
-      <c r="C60" s="311" t="s">
+      <c r="C60" s="280" t="s">
         <v>298</v>
       </c>
       <c r="D60" s="199" t="s">
@@ -35621,10 +35889,10 @@
       <c r="J60" s="189"/>
     </row>
     <row r="61" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="335" t="s">
+      <c r="B61" s="304" t="s">
         <v>475</v>
       </c>
-      <c r="C61" s="311" t="s">
+      <c r="C61" s="280" t="s">
         <v>299</v>
       </c>
       <c r="D61" s="199" t="s">
@@ -35646,10 +35914,10 @@
       <c r="J61" s="189"/>
     </row>
     <row r="62" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="335" t="s">
+      <c r="B62" s="304" t="s">
         <v>476</v>
       </c>
-      <c r="C62" s="311" t="s">
+      <c r="C62" s="280" t="s">
         <v>300</v>
       </c>
       <c r="D62" s="199" t="s">
@@ -35707,10 +35975,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="259"/>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
       <c r="E1" s="245"/>
       <c r="F1" s="245"/>
       <c r="G1" s="245"/>
@@ -35805,23 +36073,23 @@
       <c r="H9" s="245"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="260" t="s">
+      <c r="A10" s="315" t="s">
         <v>383</v>
       </c>
-      <c r="B10" s="261"/>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="263" t="s">
+      <c r="B10" s="316"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="316"/>
+      <c r="E10" s="316"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="317"/>
+      <c r="I10" s="318" t="s">
         <v>384</v>
       </c>
-      <c r="J10" s="264"/>
-      <c r="K10" s="264"/>
-      <c r="L10" s="264"/>
-      <c r="M10" s="265"/>
+      <c r="J10" s="319"/>
+      <c r="K10" s="319"/>
+      <c r="L10" s="319"/>
+      <c r="M10" s="320"/>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="247" t="s">
@@ -36254,14 +36522,14 @@
       <c r="D5" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="269" t="s">
+      <c r="E5" s="324" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="270"/>
-      <c r="G5" s="271">
+      <c r="F5" s="325"/>
+      <c r="G5" s="326">
         <v>45160</v>
       </c>
-      <c r="H5" s="271"/>
+      <c r="H5" s="326"/>
     </row>
     <row r="6" spans="1:66" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
@@ -36269,93 +36537,93 @@
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
-      <c r="E6" s="269" t="s">
+      <c r="E6" s="324" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="270"/>
+      <c r="F6" s="325"/>
       <c r="G6" s="41">
         <v>1</v>
       </c>
-      <c r="K6" s="266">
+      <c r="K6" s="321">
         <f>K7</f>
         <v>45159</v>
       </c>
-      <c r="L6" s="267"/>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="267"/>
-      <c r="P6" s="267"/>
-      <c r="Q6" s="268"/>
-      <c r="R6" s="266">
+      <c r="L6" s="322"/>
+      <c r="M6" s="322"/>
+      <c r="N6" s="322"/>
+      <c r="O6" s="322"/>
+      <c r="P6" s="322"/>
+      <c r="Q6" s="323"/>
+      <c r="R6" s="321">
         <f>R7</f>
         <v>45166</v>
       </c>
-      <c r="S6" s="267"/>
-      <c r="T6" s="267"/>
-      <c r="U6" s="267"/>
-      <c r="V6" s="267"/>
-      <c r="W6" s="267"/>
-      <c r="X6" s="268"/>
-      <c r="Y6" s="266">
+      <c r="S6" s="322"/>
+      <c r="T6" s="322"/>
+      <c r="U6" s="322"/>
+      <c r="V6" s="322"/>
+      <c r="W6" s="322"/>
+      <c r="X6" s="323"/>
+      <c r="Y6" s="321">
         <f>Y7</f>
         <v>45173</v>
       </c>
-      <c r="Z6" s="267"/>
-      <c r="AA6" s="267"/>
-      <c r="AB6" s="267"/>
-      <c r="AC6" s="267"/>
-      <c r="AD6" s="267"/>
-      <c r="AE6" s="268"/>
-      <c r="AF6" s="266">
+      <c r="Z6" s="322"/>
+      <c r="AA6" s="322"/>
+      <c r="AB6" s="322"/>
+      <c r="AC6" s="322"/>
+      <c r="AD6" s="322"/>
+      <c r="AE6" s="323"/>
+      <c r="AF6" s="321">
         <f>AF7</f>
         <v>45180</v>
       </c>
-      <c r="AG6" s="267"/>
-      <c r="AH6" s="267"/>
-      <c r="AI6" s="267"/>
-      <c r="AJ6" s="267"/>
-      <c r="AK6" s="267"/>
-      <c r="AL6" s="268"/>
-      <c r="AM6" s="266">
+      <c r="AG6" s="322"/>
+      <c r="AH6" s="322"/>
+      <c r="AI6" s="322"/>
+      <c r="AJ6" s="322"/>
+      <c r="AK6" s="322"/>
+      <c r="AL6" s="323"/>
+      <c r="AM6" s="321">
         <f>AM7</f>
         <v>45187</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="268"/>
-      <c r="AT6" s="266">
+      <c r="AN6" s="322"/>
+      <c r="AO6" s="322"/>
+      <c r="AP6" s="322"/>
+      <c r="AQ6" s="322"/>
+      <c r="AR6" s="322"/>
+      <c r="AS6" s="323"/>
+      <c r="AT6" s="321">
         <f>AT7</f>
         <v>45194</v>
       </c>
-      <c r="AU6" s="267"/>
-      <c r="AV6" s="267"/>
-      <c r="AW6" s="267"/>
-      <c r="AX6" s="267"/>
-      <c r="AY6" s="267"/>
-      <c r="AZ6" s="268"/>
-      <c r="BA6" s="266">
+      <c r="AU6" s="322"/>
+      <c r="AV6" s="322"/>
+      <c r="AW6" s="322"/>
+      <c r="AX6" s="322"/>
+      <c r="AY6" s="322"/>
+      <c r="AZ6" s="323"/>
+      <c r="BA6" s="321">
         <f>BA7</f>
         <v>45201</v>
       </c>
-      <c r="BB6" s="267"/>
-      <c r="BC6" s="267"/>
-      <c r="BD6" s="267"/>
-      <c r="BE6" s="267"/>
-      <c r="BF6" s="267"/>
-      <c r="BG6" s="268"/>
-      <c r="BH6" s="266">
+      <c r="BB6" s="322"/>
+      <c r="BC6" s="322"/>
+      <c r="BD6" s="322"/>
+      <c r="BE6" s="322"/>
+      <c r="BF6" s="322"/>
+      <c r="BG6" s="323"/>
+      <c r="BH6" s="321">
         <f>BH7</f>
         <v>45208</v>
       </c>
-      <c r="BI6" s="267"/>
-      <c r="BJ6" s="267"/>
-      <c r="BK6" s="267"/>
-      <c r="BL6" s="267"/>
-      <c r="BM6" s="267"/>
-      <c r="BN6" s="268"/>
+      <c r="BI6" s="322"/>
+      <c r="BJ6" s="322"/>
+      <c r="BK6" s="322"/>
+      <c r="BL6" s="322"/>
+      <c r="BM6" s="322"/>
+      <c r="BN6" s="323"/>
     </row>
     <row r="7" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -39813,27 +40081,27 @@
       <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="275"/>
-      <c r="J5" s="275"/>
-      <c r="K5" s="275"/>
-      <c r="L5" s="275"/>
-      <c r="M5" s="275"/>
-      <c r="N5" s="275"/>
-      <c r="O5" s="275"/>
-      <c r="P5" s="275"/>
-      <c r="Q5" s="275"/>
-      <c r="R5" s="275"/>
-      <c r="S5" s="275"/>
-      <c r="T5" s="275"/>
-      <c r="U5" s="275"/>
-      <c r="V5" s="275"/>
-      <c r="W5" s="275"/>
-      <c r="X5" s="276"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="331"/>
+      <c r="V5" s="331"/>
+      <c r="W5" s="331"/>
+      <c r="X5" s="332"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="20"/>
@@ -39917,42 +40185,42 @@
     <row r="7" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7"/>
-      <c r="D7" s="277" t="s">
+      <c r="D7" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="280" t="s">
+      <c r="E7" s="334"/>
+      <c r="F7" s="334"/>
+      <c r="G7" s="335"/>
+      <c r="H7" s="336" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="278"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="279"/>
-      <c r="L7" s="280" t="s">
+      <c r="I7" s="334"/>
+      <c r="J7" s="334"/>
+      <c r="K7" s="335"/>
+      <c r="L7" s="336" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="278"/>
-      <c r="N7" s="278"/>
-      <c r="O7" s="279"/>
-      <c r="P7" s="280" t="s">
+      <c r="M7" s="334"/>
+      <c r="N7" s="334"/>
+      <c r="O7" s="335"/>
+      <c r="P7" s="336" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="278"/>
-      <c r="R7" s="278"/>
-      <c r="S7" s="279"/>
-      <c r="T7" s="280" t="s">
+      <c r="Q7" s="334"/>
+      <c r="R7" s="334"/>
+      <c r="S7" s="335"/>
+      <c r="T7" s="336" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="278"/>
-      <c r="V7" s="278"/>
-      <c r="W7" s="279"/>
-      <c r="X7" s="280" t="s">
+      <c r="U7" s="334"/>
+      <c r="V7" s="334"/>
+      <c r="W7" s="335"/>
+      <c r="X7" s="336" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="278"/>
-      <c r="Z7" s="278"/>
-      <c r="AA7" s="279"/>
+      <c r="Y7" s="334"/>
+      <c r="Z7" s="334"/>
+      <c r="AA7" s="335"/>
     </row>
     <row r="8" spans="2:27" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
@@ -39961,32 +40229,32 @@
       <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="272">
+      <c r="D8" s="327">
         <v>30000</v>
       </c>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="274"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="274"/>
-      <c r="L8" s="272"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="274"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="273"/>
-      <c r="R8" s="273"/>
-      <c r="S8" s="274"/>
-      <c r="T8" s="272"/>
-      <c r="U8" s="273"/>
-      <c r="V8" s="273"/>
-      <c r="W8" s="274"/>
-      <c r="X8" s="272"/>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="274"/>
+      <c r="E8" s="328"/>
+      <c r="F8" s="328"/>
+      <c r="G8" s="329"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="328"/>
+      <c r="J8" s="328"/>
+      <c r="K8" s="329"/>
+      <c r="L8" s="327"/>
+      <c r="M8" s="328"/>
+      <c r="N8" s="328"/>
+      <c r="O8" s="329"/>
+      <c r="P8" s="327"/>
+      <c r="Q8" s="328"/>
+      <c r="R8" s="328"/>
+      <c r="S8" s="329"/>
+      <c r="T8" s="327"/>
+      <c r="U8" s="328"/>
+      <c r="V8" s="328"/>
+      <c r="W8" s="329"/>
+      <c r="X8" s="327"/>
+      <c r="Y8" s="328"/>
+      <c r="Z8" s="328"/>
+      <c r="AA8" s="329"/>
     </row>
     <row r="9" spans="2:27" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
@@ -39995,38 +40263,38 @@
       <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="272"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="274"/>
-      <c r="H9" s="272">
+      <c r="D9" s="327"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="328"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="327">
         <v>5000</v>
       </c>
-      <c r="I9" s="273"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="274"/>
-      <c r="L9" s="272">
+      <c r="I9" s="328"/>
+      <c r="J9" s="328"/>
+      <c r="K9" s="329"/>
+      <c r="L9" s="327">
         <v>5000</v>
       </c>
-      <c r="M9" s="273"/>
-      <c r="N9" s="273"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="272">
+      <c r="M9" s="328"/>
+      <c r="N9" s="328"/>
+      <c r="O9" s="329"/>
+      <c r="P9" s="327">
         <v>5000</v>
       </c>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="273"/>
-      <c r="S9" s="274"/>
-      <c r="T9" s="272">
+      <c r="Q9" s="328"/>
+      <c r="R9" s="328"/>
+      <c r="S9" s="329"/>
+      <c r="T9" s="327">
         <v>5000</v>
       </c>
-      <c r="U9" s="273"/>
-      <c r="V9" s="273"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="272"/>
-      <c r="Y9" s="273"/>
-      <c r="Z9" s="273"/>
-      <c r="AA9" s="274"/>
+      <c r="U9" s="328"/>
+      <c r="V9" s="328"/>
+      <c r="W9" s="329"/>
+      <c r="X9" s="327"/>
+      <c r="Y9" s="328"/>
+      <c r="Z9" s="328"/>
+      <c r="AA9" s="329"/>
     </row>
     <row r="10" spans="2:27" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -40035,32 +40303,32 @@
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="272"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="272"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="274"/>
-      <c r="L10" s="272"/>
-      <c r="M10" s="273"/>
-      <c r="N10" s="273"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="272"/>
-      <c r="Q10" s="273"/>
-      <c r="R10" s="273"/>
-      <c r="S10" s="274"/>
-      <c r="T10" s="272"/>
-      <c r="U10" s="273"/>
-      <c r="V10" s="273"/>
-      <c r="W10" s="274"/>
-      <c r="X10" s="272">
+      <c r="D10" s="327"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="328"/>
+      <c r="G10" s="329"/>
+      <c r="H10" s="327"/>
+      <c r="I10" s="328"/>
+      <c r="J10" s="328"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="327"/>
+      <c r="M10" s="328"/>
+      <c r="N10" s="328"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="327"/>
+      <c r="Q10" s="328"/>
+      <c r="R10" s="328"/>
+      <c r="S10" s="329"/>
+      <c r="T10" s="327"/>
+      <c r="U10" s="328"/>
+      <c r="V10" s="328"/>
+      <c r="W10" s="329"/>
+      <c r="X10" s="327">
         <v>10000</v>
       </c>
-      <c r="Y10" s="273"/>
-      <c r="Z10" s="273"/>
-      <c r="AA10" s="274"/>
+      <c r="Y10" s="328"/>
+      <c r="Z10" s="328"/>
+      <c r="AA10" s="329"/>
     </row>
     <row r="11" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
@@ -40069,38 +40337,38 @@
       <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="272"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="274"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="273"/>
-      <c r="J11" s="273"/>
-      <c r="K11" s="274"/>
-      <c r="L11" s="272">
+      <c r="D11" s="327"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="328"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="327"/>
+      <c r="I11" s="328"/>
+      <c r="J11" s="328"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="327">
         <v>20000</v>
       </c>
-      <c r="M11" s="273"/>
-      <c r="N11" s="273"/>
-      <c r="O11" s="274"/>
-      <c r="P11" s="272">
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="329"/>
+      <c r="P11" s="327">
         <v>40000</v>
       </c>
-      <c r="Q11" s="273"/>
-      <c r="R11" s="273"/>
-      <c r="S11" s="274"/>
-      <c r="T11" s="272">
+      <c r="Q11" s="328"/>
+      <c r="R11" s="328"/>
+      <c r="S11" s="329"/>
+      <c r="T11" s="327">
         <v>10000</v>
       </c>
-      <c r="U11" s="273"/>
-      <c r="V11" s="273"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="272">
+      <c r="U11" s="328"/>
+      <c r="V11" s="328"/>
+      <c r="W11" s="329"/>
+      <c r="X11" s="327">
         <v>10000</v>
       </c>
-      <c r="Y11" s="273"/>
-      <c r="Z11" s="273"/>
-      <c r="AA11" s="274"/>
+      <c r="Y11" s="328"/>
+      <c r="Z11" s="328"/>
+      <c r="AA11" s="329"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
@@ -40109,40 +40377,40 @@
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="272"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="274"/>
-      <c r="H12" s="281">
+      <c r="D12" s="327"/>
+      <c r="E12" s="328"/>
+      <c r="F12" s="328"/>
+      <c r="G12" s="329"/>
+      <c r="H12" s="330">
         <v>10000</v>
       </c>
-      <c r="I12" s="273"/>
-      <c r="J12" s="273"/>
-      <c r="K12" s="274"/>
-      <c r="L12" s="272">
+      <c r="I12" s="328"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="329"/>
+      <c r="L12" s="327">
         <v>25000</v>
       </c>
-      <c r="M12" s="273"/>
-      <c r="N12" s="273"/>
-      <c r="O12" s="274"/>
-      <c r="P12" s="272">
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="329"/>
+      <c r="P12" s="327">
         <v>25000</v>
       </c>
-      <c r="Q12" s="273"/>
-      <c r="R12" s="273"/>
-      <c r="S12" s="274"/>
-      <c r="T12" s="272">
+      <c r="Q12" s="328"/>
+      <c r="R12" s="328"/>
+      <c r="S12" s="329"/>
+      <c r="T12" s="327">
         <v>25000</v>
       </c>
-      <c r="U12" s="273"/>
-      <c r="V12" s="273"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="272">
+      <c r="U12" s="328"/>
+      <c r="V12" s="328"/>
+      <c r="W12" s="329"/>
+      <c r="X12" s="327">
         <v>5000</v>
       </c>
-      <c r="Y12" s="273"/>
-      <c r="Z12" s="273"/>
-      <c r="AA12" s="274"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
+      <c r="AA12" s="329"/>
     </row>
     <row r="13" spans="2:27" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -40151,38 +40419,38 @@
       <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="272"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="274"/>
-      <c r="H13" s="272"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="274"/>
-      <c r="L13" s="272">
+      <c r="D13" s="327"/>
+      <c r="E13" s="328"/>
+      <c r="F13" s="328"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="327"/>
+      <c r="I13" s="328"/>
+      <c r="J13" s="328"/>
+      <c r="K13" s="329"/>
+      <c r="L13" s="327">
         <v>15000</v>
       </c>
-      <c r="M13" s="273"/>
-      <c r="N13" s="273"/>
-      <c r="O13" s="274"/>
-      <c r="P13" s="272">
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="329"/>
+      <c r="P13" s="327">
         <v>15000</v>
       </c>
-      <c r="Q13" s="273"/>
-      <c r="R13" s="273"/>
-      <c r="S13" s="274"/>
-      <c r="T13" s="272">
+      <c r="Q13" s="328"/>
+      <c r="R13" s="328"/>
+      <c r="S13" s="329"/>
+      <c r="T13" s="327">
         <v>20000</v>
       </c>
-      <c r="U13" s="273"/>
-      <c r="V13" s="273"/>
-      <c r="W13" s="274"/>
-      <c r="X13" s="272">
+      <c r="U13" s="328"/>
+      <c r="V13" s="328"/>
+      <c r="W13" s="329"/>
+      <c r="X13" s="327">
         <v>10000</v>
       </c>
-      <c r="Y13" s="273"/>
-      <c r="Z13" s="273"/>
-      <c r="AA13" s="274"/>
+      <c r="Y13" s="328"/>
+      <c r="Z13" s="328"/>
+      <c r="AA13" s="329"/>
     </row>
     <row r="14" spans="2:27" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
@@ -40191,32 +40459,32 @@
       <c r="C14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="272"/>
-      <c r="E14" s="273"/>
-      <c r="F14" s="273"/>
-      <c r="G14" s="274"/>
-      <c r="H14" s="272"/>
-      <c r="I14" s="273"/>
-      <c r="J14" s="273"/>
-      <c r="K14" s="274"/>
-      <c r="L14" s="272"/>
-      <c r="M14" s="273"/>
-      <c r="N14" s="273"/>
-      <c r="O14" s="274"/>
-      <c r="P14" s="272"/>
-      <c r="Q14" s="273"/>
-      <c r="R14" s="273"/>
-      <c r="S14" s="274"/>
-      <c r="T14" s="272"/>
-      <c r="U14" s="273"/>
-      <c r="V14" s="273"/>
-      <c r="W14" s="274"/>
-      <c r="X14" s="272">
+      <c r="D14" s="327"/>
+      <c r="E14" s="328"/>
+      <c r="F14" s="328"/>
+      <c r="G14" s="329"/>
+      <c r="H14" s="327"/>
+      <c r="I14" s="328"/>
+      <c r="J14" s="328"/>
+      <c r="K14" s="329"/>
+      <c r="L14" s="327"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="329"/>
+      <c r="P14" s="327"/>
+      <c r="Q14" s="328"/>
+      <c r="R14" s="328"/>
+      <c r="S14" s="329"/>
+      <c r="T14" s="327"/>
+      <c r="U14" s="328"/>
+      <c r="V14" s="328"/>
+      <c r="W14" s="329"/>
+      <c r="X14" s="327">
         <v>7000</v>
       </c>
-      <c r="Y14" s="273"/>
-      <c r="Z14" s="273"/>
-      <c r="AA14" s="274"/>
+      <c r="Y14" s="328"/>
+      <c r="Z14" s="328"/>
+      <c r="AA14" s="329"/>
     </row>
     <row r="15" spans="2:27" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
@@ -40225,34 +40493,34 @@
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="272"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="273"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="272"/>
-      <c r="I15" s="273"/>
-      <c r="J15" s="273"/>
-      <c r="K15" s="274"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="273"/>
-      <c r="N15" s="273"/>
-      <c r="O15" s="274"/>
-      <c r="P15" s="272"/>
-      <c r="Q15" s="273"/>
-      <c r="R15" s="273"/>
-      <c r="S15" s="274"/>
-      <c r="T15" s="272">
+      <c r="D15" s="327"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="329"/>
+      <c r="H15" s="327"/>
+      <c r="I15" s="328"/>
+      <c r="J15" s="328"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="327"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="329"/>
+      <c r="P15" s="327"/>
+      <c r="Q15" s="328"/>
+      <c r="R15" s="328"/>
+      <c r="S15" s="329"/>
+      <c r="T15" s="327">
         <v>4000</v>
       </c>
-      <c r="U15" s="273"/>
-      <c r="V15" s="273"/>
-      <c r="W15" s="274"/>
-      <c r="X15" s="272">
+      <c r="U15" s="328"/>
+      <c r="V15" s="328"/>
+      <c r="W15" s="329"/>
+      <c r="X15" s="327">
         <v>4000</v>
       </c>
-      <c r="Y15" s="273"/>
-      <c r="Z15" s="273"/>
-      <c r="AA15" s="274"/>
+      <c r="Y15" s="328"/>
+      <c r="Z15" s="328"/>
+      <c r="AA15" s="329"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
@@ -40261,34 +40529,34 @@
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="272"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="273"/>
-      <c r="G16" s="274"/>
-      <c r="H16" s="272"/>
-      <c r="I16" s="273"/>
-      <c r="J16" s="273"/>
-      <c r="K16" s="274"/>
-      <c r="L16" s="272"/>
-      <c r="M16" s="273"/>
-      <c r="N16" s="273"/>
-      <c r="O16" s="274"/>
-      <c r="P16" s="272"/>
-      <c r="Q16" s="273"/>
-      <c r="R16" s="273"/>
-      <c r="S16" s="274"/>
-      <c r="T16" s="272">
+      <c r="D16" s="327"/>
+      <c r="E16" s="328"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="329"/>
+      <c r="H16" s="327"/>
+      <c r="I16" s="328"/>
+      <c r="J16" s="328"/>
+      <c r="K16" s="329"/>
+      <c r="L16" s="327"/>
+      <c r="M16" s="328"/>
+      <c r="N16" s="328"/>
+      <c r="O16" s="329"/>
+      <c r="P16" s="327"/>
+      <c r="Q16" s="328"/>
+      <c r="R16" s="328"/>
+      <c r="S16" s="329"/>
+      <c r="T16" s="327">
         <v>2500</v>
       </c>
-      <c r="U16" s="273"/>
-      <c r="V16" s="273"/>
-      <c r="W16" s="274"/>
-      <c r="X16" s="272">
+      <c r="U16" s="328"/>
+      <c r="V16" s="328"/>
+      <c r="W16" s="329"/>
+      <c r="X16" s="327">
         <v>2500</v>
       </c>
-      <c r="Y16" s="273"/>
-      <c r="Z16" s="273"/>
-      <c r="AA16" s="274"/>
+      <c r="Y16" s="328"/>
+      <c r="Z16" s="328"/>
+      <c r="AA16" s="329"/>
     </row>
     <row r="17" spans="2:27" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
@@ -40297,32 +40565,32 @@
       <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="272"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="273"/>
-      <c r="G17" s="274"/>
-      <c r="H17" s="272"/>
-      <c r="I17" s="273"/>
-      <c r="J17" s="273"/>
-      <c r="K17" s="274"/>
-      <c r="L17" s="272"/>
-      <c r="M17" s="273"/>
-      <c r="N17" s="273"/>
-      <c r="O17" s="274"/>
-      <c r="P17" s="272"/>
-      <c r="Q17" s="273"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="274"/>
-      <c r="T17" s="272"/>
-      <c r="U17" s="273"/>
-      <c r="V17" s="273"/>
-      <c r="W17" s="274"/>
-      <c r="X17" s="272">
+      <c r="D17" s="327"/>
+      <c r="E17" s="328"/>
+      <c r="F17" s="328"/>
+      <c r="G17" s="329"/>
+      <c r="H17" s="327"/>
+      <c r="I17" s="328"/>
+      <c r="J17" s="328"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="327"/>
+      <c r="M17" s="328"/>
+      <c r="N17" s="328"/>
+      <c r="O17" s="329"/>
+      <c r="P17" s="327"/>
+      <c r="Q17" s="328"/>
+      <c r="R17" s="328"/>
+      <c r="S17" s="329"/>
+      <c r="T17" s="327"/>
+      <c r="U17" s="328"/>
+      <c r="V17" s="328"/>
+      <c r="W17" s="329"/>
+      <c r="X17" s="327">
         <v>0</v>
       </c>
-      <c r="Y17" s="273"/>
-      <c r="Z17" s="273"/>
-      <c r="AA17" s="274"/>
+      <c r="Y17" s="328"/>
+      <c r="Z17" s="328"/>
+      <c r="AA17" s="329"/>
     </row>
     <row r="18" spans="2:27" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
@@ -40331,84 +40599,69 @@
       <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="272"/>
-      <c r="E18" s="273"/>
-      <c r="F18" s="273"/>
-      <c r="G18" s="274"/>
-      <c r="H18" s="272">
+      <c r="D18" s="327"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
+      <c r="G18" s="329"/>
+      <c r="H18" s="327">
         <f>20000*35%</f>
         <v>7000</v>
       </c>
-      <c r="I18" s="273"/>
-      <c r="J18" s="273"/>
-      <c r="K18" s="274"/>
-      <c r="L18" s="272">
+      <c r="I18" s="328"/>
+      <c r="J18" s="328"/>
+      <c r="K18" s="329"/>
+      <c r="L18" s="327">
         <f>13000/4</f>
         <v>3250</v>
       </c>
-      <c r="M18" s="273"/>
-      <c r="N18" s="273"/>
-      <c r="O18" s="274"/>
-      <c r="P18" s="272">
+      <c r="M18" s="328"/>
+      <c r="N18" s="328"/>
+      <c r="O18" s="329"/>
+      <c r="P18" s="327">
         <f>13000/4</f>
         <v>3250</v>
       </c>
-      <c r="Q18" s="273"/>
-      <c r="R18" s="273"/>
-      <c r="S18" s="274"/>
-      <c r="T18" s="272">
+      <c r="Q18" s="328"/>
+      <c r="R18" s="328"/>
+      <c r="S18" s="329"/>
+      <c r="T18" s="327">
         <f>13000/4</f>
         <v>3250</v>
       </c>
-      <c r="U18" s="273"/>
-      <c r="V18" s="273"/>
-      <c r="W18" s="274"/>
-      <c r="X18" s="272">
+      <c r="U18" s="328"/>
+      <c r="V18" s="328"/>
+      <c r="W18" s="329"/>
+      <c r="X18" s="327">
         <f>13000/4</f>
         <v>3250</v>
       </c>
-      <c r="Y18" s="273"/>
-      <c r="Z18" s="273"/>
-      <c r="AA18" s="274"/>
+      <c r="Y18" s="328"/>
+      <c r="Z18" s="328"/>
+      <c r="AA18" s="329"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="L8:O8"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="X9:AA9"/>
@@ -40425,27 +40678,42 @@
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
